--- a/data/CotsList.xlsx
+++ b/data/CotsList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rserghine\Projects React\DsiCenter_Excel\public\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21AE72AB-82DE-4A9A-9EB3-3CF87BAA4792}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{033C5731-1456-48C3-BD9B-9D31FDC48EBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{67F2D85F-F75B-4B61-9855-239B084B2F7E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{67F2D85F-F75B-4B61-9855-239B084B2F7E}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="597" uniqueCount="243">
   <si>
     <t>APPLICATION</t>
   </si>
@@ -669,10 +669,6 @@
 Best regards.</t>
   </si>
   <si>
-    <t>We created an IRequest to add you in the license authorization file for "SOFTWARE".
-Awaiting the response.</t>
-  </si>
-  <si>
     <t>There is no license for PSIM 9 so we suggest him to create a new request for PSIM 2022.</t>
   </si>
   <si>
@@ -973,38 +969,6 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Hello team,
-The user wants to install (or uninstall) **COTS** from Pc Services/Software center but it failed.
-**COTS** is free.
-As per usual, can you, please help him to install (or uninstall) it manually.
-PROCESS: (Admin rights required)
-1) Copy the folder "\\tosys001\InstWKS\Install_W10\**COTS**"  to "C:\temp"
-if Install      2) Run: "C:\Temp\**COTS**\Deploy-Application.exe" 
-                      (or RunProgram.exe and click Install)
-if Uninstall  2) Open Command prompt, type "C:\Temp\**COTS**\Deploy-Application.exe" uninstall and Enter
-                       (or run "C:\Temp\**cots**\RunProgram.exe" and click Uninstall)
-3) check installation (or Uninstallation) OK in Control panel.
-Please not close the incident.
-Thank you very much.
-Best regards
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hello team,
-The user wants to install (or uninstall) **COTS** from Pc Services/Software center but it failed.
-As per usual, can you, please help him it remotely.
-PROCESS: (Admin rights required):
-1) Copy the folder "\\tosys001\InstWKS\Install_W10\**COTS**" to "C:\temp"
-if Install:      2) Run: "C:\Temp\**COTS**\Deploy-Application.exe"
-                       (or RunProgram.exe and click Install)
-if Uninstall  2) Open Command prompt, type "C:\Temp\**COTS**\Deploy-Application.exe uninstall" and Enter
-	           (or run "C:\Temp\**COTS**\RunProgram.exe" and click Uninstall)
-3) check installation (or Uninstallation) OK in Control panel.
-Thank you very much.
-Best regards.
-</t>
-  </si>
-  <si>
     <t>Dear user,
 You want to install (or uninstall) **COTS** from Pc Services/Software center but it failed.
 (if copy : We created a new incident INCxxxxx, so) a technician will contact and help you remotely.
@@ -1064,6 +1028,48 @@
 Thank you.
 Best regards.
 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hello team,
+The user wants to install (or uninstall) freely **COTS** from Pc Services/Software center but it failed.
+As per usual, can you, please help him to install (or uninstall) it manually.
+PROCESS: (Admin rights required)
+1) Copy the folder "\\tosys001\InstWKS\xxxxx\**COTS**  to "C:\temp"
+if Install      2) Run: "C:\Temp\xxxxx\xxxxx.exe" 
+if Uninstall  2) Open Command prompt, type "C:\Temp\**COTS**\Deploy-Application.exe" uninstall and Enter
+                       (or run "C:\Temp\**COTS**\RunProgram.exe" and click Uninstall)
+3) check installation (or Uninstallation) OK in Control panel.
+Please not close the incident.
+Thank you very much.
+Best regards
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hello team,
+The user wants to install (or uninstall) freely **COTS** from Pc Services/Software center but it failed.
+As per usual, can you, please help him it remotely.
+PROCESS: (Admin rights required):
+1) Copy the folder "\\tosys001\xxxxx\**COTS**" to "C:\temp"
+if Install:      2) Run: "C:\Temp\xxxxx\xxxxx.exe"
+if Uninstall  2) Open Command prompt, type "C:\Temp\**COTS**\Deploy-Application.exe uninstall" and Enter
+	                  (or run "C:\Temp\**COTS**\RunProgram.exe" and click Uninstall)
+3) check installation (or Uninstallation) OK in Control panel.
+Thank you very much.
+Best regards.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dear user,
+According to our information, you've never created an access request for **cots**.
+Please provide us the below information:
+Where did you get: **cots**
+Thank you.
+Best regards.
+</t>
+  </si>
+  <si>
+    <t>We created an IRequest to add the user in the license authorization file for "SOFTWARE".
+Awaiting the response.</t>
   </si>
 </sst>
 </file>
@@ -4084,7 +4090,7 @@
         <v>197</v>
       </c>
       <c r="J27" s="14" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K27" s="13" t="s">
         <v>180</v>
@@ -4135,7 +4141,7 @@
         <v>197</v>
       </c>
       <c r="J28" s="73" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K28" s="72" t="s">
         <v>180</v>
@@ -4505,7 +4511,7 @@
         <v>98</v>
       </c>
       <c r="F36" s="124" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G36" s="105" t="s">
         <v>173</v>
@@ -4556,7 +4562,7 @@
         <v>98</v>
       </c>
       <c r="F37" s="125" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G37" s="106" t="s">
         <v>173</v>
@@ -4607,7 +4613,7 @@
         <v>98</v>
       </c>
       <c r="F38" s="130" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G38" s="112" t="s">
         <v>173</v>
@@ -4675,10 +4681,10 @@
         <v>186</v>
       </c>
       <c r="K39" s="70" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="L39" s="71" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="M39" s="1"/>
       <c r="N39" s="1"/>
@@ -4726,10 +4732,10 @@
         <v>186</v>
       </c>
       <c r="K40" s="70" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="L40" s="71" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="M40" s="1"/>
       <c r="N40" s="1"/>
@@ -4777,10 +4783,10 @@
         <v>186</v>
       </c>
       <c r="K41" s="70" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="L41" s="71" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="M41" s="1"/>
       <c r="N41" s="1"/>
@@ -4828,10 +4834,10 @@
         <v>186</v>
       </c>
       <c r="K42" s="70" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="L42" s="71" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="M42" s="1"/>
       <c r="N42" s="1"/>
@@ -4879,10 +4885,10 @@
         <v>186</v>
       </c>
       <c r="K43" s="70" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="L43" s="71" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="M43" s="1"/>
       <c r="N43" s="1"/>
@@ -4930,10 +4936,10 @@
         <v>186</v>
       </c>
       <c r="K44" s="70" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="L44" s="71" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="M44" s="1"/>
       <c r="N44" s="1"/>
@@ -4981,10 +4987,10 @@
         <v>186</v>
       </c>
       <c r="K45" s="70" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="L45" s="71" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="M45" s="1"/>
       <c r="N45" s="1"/>
@@ -31773,8 +31779,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CF5CE56-EC25-4FB7-A62C-2823D6365594}">
   <dimension ref="A1:Z1015"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -31881,7 +31887,7 @@
     </row>
     <row r="4" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="8" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>163</v>
@@ -32364,7 +32370,7 @@
         <v>105</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
@@ -32554,7 +32560,7 @@
         <v>186</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -32586,7 +32592,7 @@
         <v>188</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -32618,7 +32624,7 @@
         <v>187</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -32650,7 +32656,7 @@
         <v>191</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -32679,10 +32685,10 @@
     </row>
     <row r="29" spans="1:26" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -32714,7 +32720,7 @@
         <v>192</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -32746,7 +32752,7 @@
         <v>193</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -32778,7 +32784,7 @@
         <v>189</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -32810,7 +32816,7 @@
         <v>194</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>199</v>
+        <v>242</v>
       </c>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -32842,7 +32848,7 @@
         <v>195</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
@@ -32874,7 +32880,7 @@
         <v>196</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -32903,10 +32909,10 @@
     </row>
     <row r="36" spans="1:26" ht="106.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
@@ -32968,7 +32974,7 @@
         <v>174</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
@@ -33000,7 +33006,7 @@
         <v>176</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
@@ -33032,7 +33038,7 @@
         <v>175</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
@@ -33064,7 +33070,7 @@
         <v>177</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
@@ -33128,7 +33134,7 @@
         <v>197</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
@@ -33160,7 +33166,7 @@
         <v>180</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
@@ -33256,7 +33262,7 @@
         <v>183</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
@@ -33288,7 +33294,7 @@
         <v>184</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
@@ -33317,10 +33323,10 @@
     </row>
     <row r="49" spans="1:26" ht="159" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="6" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
@@ -60404,8 +60410,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31D4665B-D115-4825-B0F1-BB5C2DC81169}">
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -60429,76 +60435,78 @@
     </row>
     <row r="2" spans="1:3" ht="124.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="163" t="s">
+        <v>224</v>
+      </c>
+      <c r="B2" s="160" t="s">
+        <v>229</v>
+      </c>
+      <c r="C2" s="162"/>
+    </row>
+    <row r="3" spans="1:3" ht="152.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="159" t="s">
         <v>225</v>
       </c>
-      <c r="B2" s="160" t="s">
+      <c r="B3" s="160" t="s">
+        <v>231</v>
+      </c>
+      <c r="C3" s="162"/>
+    </row>
+    <row r="4" spans="1:3" ht="138.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="159" t="s">
+        <v>226</v>
+      </c>
+      <c r="B4" s="160" t="s">
+        <v>238</v>
+      </c>
+      <c r="C4" s="162"/>
+    </row>
+    <row r="5" spans="1:3" ht="249" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="159" t="s">
+        <v>227</v>
+      </c>
+      <c r="B5" s="160" t="s">
+        <v>228</v>
+      </c>
+      <c r="C5" s="161" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="220.8" x14ac:dyDescent="0.25">
+      <c r="A6" s="158" t="s">
+        <v>232</v>
+      </c>
+      <c r="B6" s="164" t="s">
         <v>230</v>
       </c>
-      <c r="C2" s="162"/>
-    </row>
-    <row r="3" spans="1:3" ht="152.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="159" t="s">
-        <v>226</v>
+      <c r="C6" s="164" t="s">
+        <v>240</v>
       </c>
-      <c r="B3" s="160" t="s">
+    </row>
+    <row r="7" spans="1:3" ht="179.4" x14ac:dyDescent="0.25">
+      <c r="A7" s="158" t="s">
+        <v>233</v>
+      </c>
+      <c r="B7" s="165" t="s">
+        <v>236</v>
+      </c>
+      <c r="C7" s="156"/>
+    </row>
+    <row r="8" spans="1:3" ht="193.2" x14ac:dyDescent="0.25">
+      <c r="A8" s="158" t="s">
         <v>234</v>
       </c>
-      <c r="C3" s="162"/>
-    </row>
-    <row r="4" spans="1:3" ht="138.6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="159" t="s">
-        <v>227</v>
+      <c r="B8" s="165" t="s">
+        <v>237</v>
       </c>
-      <c r="B4" s="160" t="s">
+      <c r="C8" s="156"/>
+    </row>
+    <row r="9" spans="1:3" ht="151.80000000000001" x14ac:dyDescent="0.25">
+      <c r="A9" s="158" t="s">
+        <v>235</v>
+      </c>
+      <c r="B9" s="165" t="s">
         <v>241</v>
       </c>
-      <c r="C4" s="162"/>
-    </row>
-    <row r="5" spans="1:3" ht="276.60000000000002" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="159" t="s">
-        <v>228</v>
-      </c>
-      <c r="B5" s="160" t="s">
-        <v>229</v>
-      </c>
-      <c r="C5" s="161" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="234.6" x14ac:dyDescent="0.25">
-      <c r="A6" s="158" t="s">
-        <v>235</v>
-      </c>
-      <c r="B6" s="164" t="s">
-        <v>233</v>
-      </c>
-      <c r="C6" s="164" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="179.4" x14ac:dyDescent="0.25">
-      <c r="A7" s="158" t="s">
-        <v>236</v>
-      </c>
-      <c r="B7" s="165" t="s">
-        <v>239</v>
-      </c>
-      <c r="C7" s="156"/>
-    </row>
-    <row r="8" spans="1:3" ht="193.2" x14ac:dyDescent="0.25">
-      <c r="A8" s="158" t="s">
-        <v>237</v>
-      </c>
-      <c r="B8" s="165" t="s">
-        <v>240</v>
-      </c>
-      <c r="C8" s="156"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="158" t="s">
-        <v>238</v>
-      </c>
-      <c r="B9" s="165"/>
       <c r="C9" s="156"/>
     </row>
   </sheetData>

--- a/data/CotsList.xlsx
+++ b/data/CotsList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rserghine\Projects React\DsiCenter_Excel\public\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{033C5731-1456-48C3-BD9B-9D31FDC48EBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42FBDE1C-BBD6-4BC4-8858-0B489A44DD5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{67F2D85F-F75B-4B61-9855-239B084B2F7E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{67F2D85F-F75B-4B61-9855-239B084B2F7E}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="597" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="599" uniqueCount="245">
   <si>
     <t>APPLICATION</t>
   </si>
@@ -1059,17 +1059,34 @@
 </t>
   </si>
   <si>
+    <t>We created an IRequest to add the user in the license authorization file for "SOFTWARE".
+Awaiting the response.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Dear user,
-According to our information, you've never created an access request for **cots**.
+According to our information, you have never had an access request approved for **COTS**.
 Please provide us the below information:
-Where did you get: **cots**
+Where did you get: **COTS**
 Thank you.
 Best regards.
 </t>
   </si>
   <si>
-    <t>We created an IRequest to add the user in the license authorization file for "SOFTWARE".
-Awaiting the response.</t>
+    <t>Msg 2D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dear user,
+You have not installed **COTS** according Airbus rules.
+An access request approved must be associated with its installation.
+Please:
+1) Uninstall you current "**COTS**.(optional)
+2) Go the Airbus Software catalogue
+   Link : https://airbus.service-now.com/esc?id=airbus_software_package_catalog
+3) Create a access request for **COTS** (see image attached)
+We will keep you informed..
+Thank you.
+Best regards.
+</t>
   </si>
 </sst>
 </file>
@@ -2001,7 +2018,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="171">
+  <cellXfs count="172">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2478,6 +2495,9 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2864,18 +2884,18 @@
       <c r="F1" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="169" t="s">
+      <c r="G1" s="170" t="s">
         <v>168</v>
       </c>
-      <c r="H1" s="170"/>
-      <c r="I1" s="169" t="s">
+      <c r="H1" s="171"/>
+      <c r="I1" s="170" t="s">
         <v>169</v>
       </c>
-      <c r="J1" s="170"/>
-      <c r="K1" s="169" t="s">
+      <c r="J1" s="171"/>
+      <c r="K1" s="170" t="s">
         <v>170</v>
       </c>
-      <c r="L1" s="170"/>
+      <c r="L1" s="171"/>
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
@@ -5100,10 +5120,10 @@
       <c r="A48" s="36" t="s">
         <v>149</v>
       </c>
-      <c r="B48" s="166" t="s">
+      <c r="B48" s="167" t="s">
         <v>150</v>
       </c>
-      <c r="C48" s="166" t="s">
+      <c r="C48" s="167" t="s">
         <v>8</v>
       </c>
       <c r="D48" s="46" t="s">
@@ -5135,8 +5155,8 @@
     </row>
     <row r="49" spans="1:27" ht="16.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="77"/>
-      <c r="B49" s="167"/>
-      <c r="C49" s="168"/>
+      <c r="B49" s="168"/>
+      <c r="C49" s="169"/>
       <c r="D49" s="33" t="s">
         <v>152</v>
       </c>
@@ -31779,7 +31799,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CF5CE56-EC25-4FB7-A62C-2823D6365594}">
   <dimension ref="A1:Z1015"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+    <sheetView topLeftCell="A34" workbookViewId="0">
       <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
@@ -32816,7 +32836,7 @@
         <v>194</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -60408,10 +60428,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31D4665B-D115-4825-B0F1-BB5C2DC81169}">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -60505,9 +60525,17 @@
         <v>235</v>
       </c>
       <c r="B9" s="165" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C9" s="156"/>
+    </row>
+    <row r="10" spans="1:3" ht="262.2" x14ac:dyDescent="0.25">
+      <c r="A10" s="158" t="s">
+        <v>243</v>
+      </c>
+      <c r="B10" s="166" t="s">
+        <v>244</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/CotsList.xlsx
+++ b/data/CotsList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rserghine\Projects React\DsiCenter_Excel\public\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1991679E-8500-45E4-B8DF-07A8940012DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72CC5315-3403-4478-81EB-B080B918D3F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{67F2D85F-F75B-4B61-9855-239B084B2F7E}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="648" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="648" uniqueCount="273">
   <si>
     <t>APPLICATION</t>
   </si>
@@ -1303,12 +1303,6 @@
 We suggest you to create a new request for another version.
 Best regards</t>
     </r>
-  </si>
-  <si>
-    <t>AC 8</t>
-  </si>
-  <si>
-    <t>WN 8</t>
   </si>
 </sst>
 </file>
@@ -2723,6 +2717,9 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2734,9 +2731,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3073,8 +3067,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8204D41-40C1-4E72-957A-75C3D992A16F}">
   <dimension ref="A1:AA965"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3112,18 +3106,18 @@
       <c r="F1" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="171" t="s">
+      <c r="G1" s="172" t="s">
         <v>168</v>
       </c>
-      <c r="H1" s="172"/>
-      <c r="I1" s="171" t="s">
+      <c r="H1" s="173"/>
+      <c r="I1" s="172" t="s">
         <v>169</v>
       </c>
-      <c r="J1" s="172"/>
-      <c r="K1" s="171" t="s">
+      <c r="J1" s="173"/>
+      <c r="K1" s="172" t="s">
         <v>170</v>
       </c>
-      <c r="L1" s="172"/>
+      <c r="L1" s="173"/>
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
@@ -3713,10 +3707,10 @@
         <v>186</v>
       </c>
       <c r="K13" s="72" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="L13" s="73" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
@@ -3764,10 +3758,10 @@
         <v>186</v>
       </c>
       <c r="K14" s="72" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="L14" s="73" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
@@ -3921,7 +3915,7 @@
       <c r="D18" s="39" t="s">
         <v>46</v>
       </c>
-      <c r="E18" s="173" t="s">
+      <c r="E18" s="168" t="s">
         <v>47</v>
       </c>
       <c r="F18" s="124" t="s">
@@ -5419,10 +5413,10 @@
       <c r="A49" s="36" t="s">
         <v>149</v>
       </c>
-      <c r="B49" s="168" t="s">
+      <c r="B49" s="169" t="s">
         <v>150</v>
       </c>
-      <c r="C49" s="168" t="s">
+      <c r="C49" s="169" t="s">
         <v>8</v>
       </c>
       <c r="D49" s="46" t="s">
@@ -5454,8 +5448,8 @@
     </row>
     <row r="50" spans="1:27" ht="16.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="77"/>
-      <c r="B50" s="169"/>
-      <c r="C50" s="170"/>
+      <c r="B50" s="170"/>
+      <c r="C50" s="171"/>
       <c r="D50" s="33" t="s">
         <v>152</v>
       </c>
@@ -32098,7 +32092,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CF5CE56-EC25-4FB7-A62C-2823D6365594}">
   <dimension ref="A1:Z1017"/>
   <sheetViews>
-    <sheetView topLeftCell="A30" workbookViewId="0">
+    <sheetView topLeftCell="A33" workbookViewId="0">
       <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>

--- a/data/CotsList.xlsx
+++ b/data/CotsList.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rserghine\Projects React\DsiCenter_Excel\public\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72CC5315-3403-4478-81EB-B080B918D3F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B034057C-0346-4DFF-B2FB-EC03DBE5371E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{67F2D85F-F75B-4B61-9855-239B084B2F7E}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{67F2D85F-F75B-4B61-9855-239B084B2F7E}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="648" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="655" uniqueCount="280">
   <si>
     <t>APPLICATION</t>
   </si>
@@ -579,12 +579,6 @@
     <t>Incomplete</t>
   </si>
   <si>
-    <t>Dear user,
-We send a mail to the provisioner for his approval.
-Awaiting the response.
-Best regards.</t>
-  </si>
-  <si>
     <t>Flowmaster2 (6.4.1_32b) EN</t>
   </si>
   <si>
@@ -670,10 +664,6 @@
   </si>
   <si>
     <t>There is no license for PSIM 9 so we suggest him to create a new request for PSIM 2022.</t>
-  </si>
-  <si>
-    <t>We send a mail to the provisioner for his approval.
-Awaiting the response.</t>
   </si>
   <si>
     <t>WN 4B</t>
@@ -1195,18 +1185,6 @@
 Best regards.</t>
   </si>
   <si>
-    <t>Hello team,
-The user wants to...
-He has not Admin rights for that.
-As per usual, can you, please help him remotely.
-PROCESS: (Admin rights required)
-1) 
-2) ...
-Please not close the incident.
-Thank you very much.
-Best regards</t>
-  </si>
-  <si>
     <t>PROOSIS (7.0.10_64b) EN</t>
   </si>
   <si>
@@ -1303,6 +1281,67 @@
 We suggest you to create a new request for another version.
 Best regards</t>
     </r>
+  </si>
+  <si>
+    <t>We sent a mail to the provisioner for his approval.
+Awaiting the response.</t>
+  </si>
+  <si>
+    <t>Dear user,
+We sent a mail to the provisioner for his approval.
+Awaiting the response.
+Best regards.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dear user,
+We can provide you the Visual studio XXXX license key by mail.
+Please provide us below informations:
+1) Have you Admin rights ?
+2) Are you in an Airbus site or offSite ?
+    If yes, Are you available to go the Airbus Techbar ?
+Thank you.
+</t>
+  </si>
+  <si>
+    <t>Msg 6A</t>
+  </si>
+  <si>
+    <t>Msg 6B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The user activated the Visual studio XXXX license key with his Admin rights.
+Request Closed.
+</t>
+  </si>
+  <si>
+    <t>Msg 6C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dear user,
+Please provide us below informations:
+The exact name/version of the Visual studio you use.
+Thank you.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dear user,
+You activated the Visual studio XXXX license key with your Admin rights.
+We close the Request.
+Best regards.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hello team,
+The user wants to...
+He has not Admin rights for that.
+As per usual, can you, please help him remotely.
+PROCESS: (Admin rights required)
+1) 
+2) ...
+Please not close the incident.
+Thank you very much.
+Best regards
+</t>
   </si>
 </sst>
 </file>
@@ -1450,7 +1489,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="59">
+  <borders count="61">
     <border>
       <left/>
       <right/>
@@ -2221,20 +2260,48 @@
     </border>
     <border>
       <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
         <color rgb="FFCCCCCC"/>
       </left>
-      <right/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
       <top style="medium">
         <color rgb="FFCCCCCC"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="174">
+  <cellXfs count="181">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2650,9 +2717,6 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -2731,6 +2795,30 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3067,7 +3155,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8204D41-40C1-4E72-957A-75C3D992A16F}">
   <dimension ref="A1:AA965"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+    <sheetView topLeftCell="A6" workbookViewId="0">
       <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
@@ -3106,18 +3194,18 @@
       <c r="F1" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="172" t="s">
+      <c r="G1" s="171" t="s">
         <v>168</v>
       </c>
-      <c r="H1" s="173"/>
-      <c r="I1" s="172" t="s">
+      <c r="H1" s="172"/>
+      <c r="I1" s="171" t="s">
         <v>169</v>
       </c>
-      <c r="J1" s="173"/>
-      <c r="K1" s="172" t="s">
+      <c r="J1" s="172"/>
+      <c r="K1" s="171" t="s">
         <v>170</v>
       </c>
-      <c r="L1" s="173"/>
+      <c r="L1" s="172"/>
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
@@ -3195,22 +3283,22 @@
         <v>14</v>
       </c>
       <c r="G3" s="60" t="s">
+        <v>172</v>
+      </c>
+      <c r="H3" s="60" t="s">
+        <v>184</v>
+      </c>
+      <c r="I3" s="60" t="s">
         <v>173</v>
       </c>
-      <c r="H3" s="60" t="s">
+      <c r="J3" s="60" t="s">
         <v>185</v>
       </c>
-      <c r="I3" s="60" t="s">
+      <c r="K3" s="60" t="s">
         <v>174</v>
       </c>
-      <c r="J3" s="60" t="s">
+      <c r="L3" s="61" t="s">
         <v>186</v>
-      </c>
-      <c r="K3" s="60" t="s">
-        <v>175</v>
-      </c>
-      <c r="L3" s="61" t="s">
-        <v>187</v>
       </c>
       <c r="M3" s="9"/>
       <c r="N3" s="1"/>
@@ -3248,22 +3336,22 @@
         <v>9</v>
       </c>
       <c r="G4" s="23" t="s">
+        <v>172</v>
+      </c>
+      <c r="H4" s="23" t="s">
+        <v>184</v>
+      </c>
+      <c r="I4" s="23" t="s">
         <v>173</v>
       </c>
-      <c r="H4" s="23" t="s">
+      <c r="J4" s="23" t="s">
         <v>185</v>
       </c>
-      <c r="I4" s="23" t="s">
-        <v>174</v>
-      </c>
-      <c r="J4" s="23" t="s">
-        <v>186</v>
-      </c>
       <c r="K4" s="23" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="L4" s="24" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="M4" s="9"/>
       <c r="N4" s="1"/>
@@ -3299,22 +3387,22 @@
         <v>9</v>
       </c>
       <c r="G5" s="20" t="s">
+        <v>172</v>
+      </c>
+      <c r="H5" s="20" t="s">
+        <v>184</v>
+      </c>
+      <c r="I5" s="20" t="s">
         <v>173</v>
       </c>
-      <c r="H5" s="20" t="s">
+      <c r="J5" s="20" t="s">
         <v>185</v>
       </c>
-      <c r="I5" s="20" t="s">
-        <v>174</v>
-      </c>
-      <c r="J5" s="20" t="s">
-        <v>186</v>
-      </c>
       <c r="K5" s="20" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="L5" s="62" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="M5" s="9"/>
       <c r="N5" s="1"/>
@@ -3350,22 +3438,22 @@
         <v>9</v>
       </c>
       <c r="G6" s="20" t="s">
+        <v>172</v>
+      </c>
+      <c r="H6" s="20" t="s">
+        <v>184</v>
+      </c>
+      <c r="I6" s="20" t="s">
         <v>173</v>
       </c>
-      <c r="H6" s="20" t="s">
+      <c r="J6" s="20" t="s">
         <v>185</v>
       </c>
-      <c r="I6" s="20" t="s">
-        <v>174</v>
-      </c>
-      <c r="J6" s="20" t="s">
-        <v>186</v>
-      </c>
       <c r="K6" s="20" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="L6" s="62" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="M6" s="9"/>
       <c r="N6" s="1"/>
@@ -3401,22 +3489,22 @@
         <v>9</v>
       </c>
       <c r="G7" s="20" t="s">
+        <v>172</v>
+      </c>
+      <c r="H7" s="20" t="s">
+        <v>184</v>
+      </c>
+      <c r="I7" s="20" t="s">
         <v>173</v>
       </c>
-      <c r="H7" s="20" t="s">
+      <c r="J7" s="20" t="s">
         <v>185</v>
       </c>
-      <c r="I7" s="20" t="s">
-        <v>174</v>
-      </c>
-      <c r="J7" s="20" t="s">
-        <v>186</v>
-      </c>
       <c r="K7" s="20" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="L7" s="62" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="M7" s="9"/>
       <c r="N7" s="1"/>
@@ -3452,22 +3540,22 @@
         <v>9</v>
       </c>
       <c r="G8" s="63" t="s">
+        <v>172</v>
+      </c>
+      <c r="H8" s="63" t="s">
+        <v>184</v>
+      </c>
+      <c r="I8" s="63" t="s">
         <v>173</v>
       </c>
-      <c r="H8" s="63" t="s">
+      <c r="J8" s="63" t="s">
         <v>185</v>
       </c>
-      <c r="I8" s="63" t="s">
-        <v>174</v>
-      </c>
-      <c r="J8" s="63" t="s">
-        <v>186</v>
-      </c>
       <c r="K8" s="63" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="L8" s="64" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="M8" s="9"/>
       <c r="N8" s="1"/>
@@ -3540,22 +3628,22 @@
         <v>9</v>
       </c>
       <c r="G10" s="142" t="s">
+        <v>172</v>
+      </c>
+      <c r="H10" s="143" t="s">
+        <v>184</v>
+      </c>
+      <c r="I10" s="144" t="s">
         <v>173</v>
       </c>
-      <c r="H10" s="143" t="s">
+      <c r="J10" s="143" t="s">
         <v>185</v>
       </c>
-      <c r="I10" s="144" t="s">
-        <v>174</v>
-      </c>
-      <c r="J10" s="143" t="s">
-        <v>186</v>
-      </c>
       <c r="K10" s="144" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="L10" s="143" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
@@ -3593,22 +3681,22 @@
         <v>158</v>
       </c>
       <c r="G11" s="105" t="s">
+        <v>172</v>
+      </c>
+      <c r="H11" s="71" t="s">
+        <v>184</v>
+      </c>
+      <c r="I11" s="70" t="s">
         <v>173</v>
       </c>
-      <c r="H11" s="71" t="s">
+      <c r="J11" s="71" t="s">
         <v>185</v>
       </c>
-      <c r="I11" s="70" t="s">
-        <v>174</v>
-      </c>
-      <c r="J11" s="71" t="s">
-        <v>186</v>
-      </c>
       <c r="K11" s="70" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="L11" s="71" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
@@ -3644,22 +3732,22 @@
         <v>158</v>
       </c>
       <c r="G12" s="106" t="s">
+        <v>172</v>
+      </c>
+      <c r="H12" s="54" t="s">
+        <v>184</v>
+      </c>
+      <c r="I12" s="11" t="s">
         <v>173</v>
       </c>
-      <c r="H12" s="54" t="s">
+      <c r="J12" s="54" t="s">
         <v>185</v>
       </c>
-      <c r="I12" s="11" t="s">
-        <v>174</v>
-      </c>
-      <c r="J12" s="54" t="s">
-        <v>186</v>
-      </c>
       <c r="K12" s="11" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="L12" s="54" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
@@ -3695,22 +3783,22 @@
         <v>158</v>
       </c>
       <c r="G13" s="107" t="s">
+        <v>172</v>
+      </c>
+      <c r="H13" s="73" t="s">
+        <v>184</v>
+      </c>
+      <c r="I13" s="72" t="s">
         <v>173</v>
       </c>
-      <c r="H13" s="73" t="s">
+      <c r="J13" s="73" t="s">
         <v>185</v>
       </c>
-      <c r="I13" s="72" t="s">
-        <v>174</v>
-      </c>
-      <c r="J13" s="73" t="s">
-        <v>186</v>
-      </c>
       <c r="K13" s="72" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="L13" s="73" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
@@ -3746,22 +3834,22 @@
         <v>158</v>
       </c>
       <c r="G14" s="107" t="s">
+        <v>172</v>
+      </c>
+      <c r="H14" s="73" t="s">
+        <v>184</v>
+      </c>
+      <c r="I14" s="72" t="s">
         <v>173</v>
       </c>
-      <c r="H14" s="73" t="s">
+      <c r="J14" s="73" t="s">
         <v>185</v>
       </c>
-      <c r="I14" s="72" t="s">
-        <v>174</v>
-      </c>
-      <c r="J14" s="73" t="s">
-        <v>186</v>
-      </c>
       <c r="K14" s="72" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="L14" s="73" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
@@ -3834,22 +3922,22 @@
         <v>30</v>
       </c>
       <c r="G16" s="103" t="s">
+        <v>172</v>
+      </c>
+      <c r="H16" s="61" t="s">
+        <v>184</v>
+      </c>
+      <c r="I16" s="60" t="s">
         <v>173</v>
       </c>
-      <c r="H16" s="61" t="s">
+      <c r="J16" s="61" t="s">
         <v>185</v>
       </c>
-      <c r="I16" s="60" t="s">
-        <v>174</v>
-      </c>
-      <c r="J16" s="61" t="s">
-        <v>186</v>
-      </c>
       <c r="K16" s="60" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="L16" s="61" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="M16" s="1"/>
       <c r="N16" s="1"/>
@@ -3915,23 +4003,23 @@
       <c r="D18" s="39" t="s">
         <v>46</v>
       </c>
-      <c r="E18" s="168" t="s">
+      <c r="E18" s="167" t="s">
         <v>47</v>
       </c>
       <c r="F18" s="124" t="s">
         <v>48</v>
       </c>
       <c r="G18" s="105" t="s">
+        <v>172</v>
+      </c>
+      <c r="H18" s="71" t="s">
+        <v>184</v>
+      </c>
+      <c r="I18" s="70" t="s">
         <v>173</v>
       </c>
-      <c r="H18" s="71" t="s">
+      <c r="J18" s="71" t="s">
         <v>185</v>
-      </c>
-      <c r="I18" s="70" t="s">
-        <v>174</v>
-      </c>
-      <c r="J18" s="71" t="s">
-        <v>186</v>
       </c>
       <c r="K18" s="70"/>
       <c r="L18" s="71"/>
@@ -3969,22 +4057,22 @@
         <v>51</v>
       </c>
       <c r="G19" s="106" t="s">
+        <v>172</v>
+      </c>
+      <c r="H19" s="54" t="s">
+        <v>184</v>
+      </c>
+      <c r="I19" s="11" t="s">
         <v>173</v>
       </c>
-      <c r="H19" s="54" t="s">
+      <c r="J19" s="54" t="s">
         <v>185</v>
       </c>
-      <c r="I19" s="11" t="s">
+      <c r="K19" s="11" t="s">
         <v>174</v>
       </c>
-      <c r="J19" s="54" t="s">
+      <c r="L19" s="54" t="s">
         <v>186</v>
-      </c>
-      <c r="K19" s="11" t="s">
-        <v>175</v>
-      </c>
-      <c r="L19" s="54" t="s">
-        <v>187</v>
       </c>
       <c r="M19" s="4"/>
       <c r="N19" s="4"/>
@@ -4020,16 +4108,16 @@
         <v>54</v>
       </c>
       <c r="G20" s="106" t="s">
+        <v>172</v>
+      </c>
+      <c r="H20" s="54" t="s">
+        <v>184</v>
+      </c>
+      <c r="I20" s="11" t="s">
         <v>173</v>
       </c>
-      <c r="H20" s="54" t="s">
+      <c r="J20" s="54" t="s">
         <v>185</v>
-      </c>
-      <c r="I20" s="11" t="s">
-        <v>174</v>
-      </c>
-      <c r="J20" s="54" t="s">
-        <v>186</v>
       </c>
       <c r="K20" s="11"/>
       <c r="L20" s="54"/>
@@ -4057,29 +4145,29 @@
       <c r="C21" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="D21" s="149" t="s">
-        <v>172</v>
+      <c r="D21" s="148" t="s">
+        <v>171</v>
       </c>
       <c r="E21" s="96" t="s">
         <v>167</v>
       </c>
-      <c r="F21" s="150" t="s">
+      <c r="F21" s="149" t="s">
         <v>57</v>
       </c>
-      <c r="G21" s="146" t="s">
+      <c r="G21" s="145" t="s">
+        <v>172</v>
+      </c>
+      <c r="H21" s="54" t="s">
+        <v>184</v>
+      </c>
+      <c r="I21" s="11" t="s">
         <v>173</v>
       </c>
-      <c r="H21" s="54" t="s">
+      <c r="J21" s="54" t="s">
         <v>185</v>
       </c>
-      <c r="I21" s="11" t="s">
-        <v>174</v>
-      </c>
-      <c r="J21" s="54" t="s">
-        <v>186</v>
-      </c>
-      <c r="K21" s="148"/>
-      <c r="L21" s="147"/>
+      <c r="K21" s="147"/>
+      <c r="L21" s="146"/>
       <c r="M21" s="4"/>
       <c r="N21" s="4"/>
       <c r="O21" s="4"/>
@@ -4110,26 +4198,26 @@
       <c r="E22" s="97" t="s">
         <v>56</v>
       </c>
-      <c r="F22" s="151" t="s">
+      <c r="F22" s="150" t="s">
         <v>57</v>
       </c>
       <c r="G22" s="107" t="s">
+        <v>172</v>
+      </c>
+      <c r="H22" s="73" t="s">
+        <v>184</v>
+      </c>
+      <c r="I22" s="72" t="s">
         <v>173</v>
       </c>
-      <c r="H22" s="73" t="s">
+      <c r="J22" s="73" t="s">
         <v>185</v>
       </c>
-      <c r="I22" s="72" t="s">
+      <c r="K22" s="72" t="s">
         <v>174</v>
       </c>
-      <c r="J22" s="73" t="s">
+      <c r="L22" s="73" t="s">
         <v>186</v>
-      </c>
-      <c r="K22" s="72" t="s">
-        <v>175</v>
-      </c>
-      <c r="L22" s="73" t="s">
-        <v>187</v>
       </c>
       <c r="M22" s="4"/>
       <c r="N22" s="4"/>
@@ -4237,22 +4325,22 @@
         <v>67</v>
       </c>
       <c r="G25" s="103" t="s">
+        <v>172</v>
+      </c>
+      <c r="H25" s="61" t="s">
+        <v>184</v>
+      </c>
+      <c r="I25" s="60" t="s">
         <v>173</v>
       </c>
-      <c r="H25" s="61" t="s">
+      <c r="J25" s="61" t="s">
         <v>185</v>
       </c>
-      <c r="I25" s="60" t="s">
-        <v>174</v>
-      </c>
-      <c r="J25" s="61" t="s">
-        <v>186</v>
-      </c>
       <c r="K25" s="60" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="L25" s="61" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="M25" s="1"/>
       <c r="N25" s="1"/>
@@ -4290,22 +4378,22 @@
         <v>72</v>
       </c>
       <c r="G26" s="111" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H26" s="82" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I26" s="81" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="J26" s="82" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="K26" s="81" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="L26" s="82" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="M26" s="1"/>
       <c r="N26" s="1"/>
@@ -4343,22 +4431,22 @@
         <v>77</v>
       </c>
       <c r="G27" s="109" t="s">
+        <v>178</v>
+      </c>
+      <c r="H27" s="14" t="s">
+        <v>190</v>
+      </c>
+      <c r="I27" s="13" t="s">
+        <v>196</v>
+      </c>
+      <c r="J27" s="14" t="s">
+        <v>199</v>
+      </c>
+      <c r="K27" s="13" t="s">
         <v>179</v>
       </c>
-      <c r="H27" s="14" t="s">
+      <c r="L27" s="14" t="s">
         <v>191</v>
-      </c>
-      <c r="I27" s="13" t="s">
-        <v>197</v>
-      </c>
-      <c r="J27" s="14" t="s">
-        <v>201</v>
-      </c>
-      <c r="K27" s="13" t="s">
-        <v>180</v>
-      </c>
-      <c r="L27" s="14" t="s">
-        <v>192</v>
       </c>
       <c r="M27" s="1"/>
       <c r="N27" s="1"/>
@@ -4394,22 +4482,22 @@
         <v>77</v>
       </c>
       <c r="G28" s="107" t="s">
+        <v>178</v>
+      </c>
+      <c r="H28" s="73" t="s">
+        <v>190</v>
+      </c>
+      <c r="I28" s="72" t="s">
+        <v>196</v>
+      </c>
+      <c r="J28" s="73" t="s">
+        <v>199</v>
+      </c>
+      <c r="K28" s="72" t="s">
         <v>179</v>
       </c>
-      <c r="H28" s="73" t="s">
+      <c r="L28" s="73" t="s">
         <v>191</v>
-      </c>
-      <c r="I28" s="72" t="s">
-        <v>197</v>
-      </c>
-      <c r="J28" s="73" t="s">
-        <v>201</v>
-      </c>
-      <c r="K28" s="72" t="s">
-        <v>180</v>
-      </c>
-      <c r="L28" s="73" t="s">
-        <v>192</v>
       </c>
       <c r="M28" s="1"/>
       <c r="N28" s="1"/>
@@ -4436,7 +4524,7 @@
         <v>8</v>
       </c>
       <c r="D29" s="34" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="E29" s="97" t="s">
         <v>76</v>
@@ -4445,22 +4533,22 @@
         <v>77</v>
       </c>
       <c r="G29" s="107" t="s">
+        <v>178</v>
+      </c>
+      <c r="H29" s="73" t="s">
+        <v>190</v>
+      </c>
+      <c r="I29" s="72" t="s">
+        <v>196</v>
+      </c>
+      <c r="J29" s="73" t="s">
+        <v>199</v>
+      </c>
+      <c r="K29" s="72" t="s">
         <v>179</v>
       </c>
-      <c r="H29" s="73" t="s">
+      <c r="L29" s="73" t="s">
         <v>191</v>
-      </c>
-      <c r="I29" s="72" t="s">
-        <v>197</v>
-      </c>
-      <c r="J29" s="73" t="s">
-        <v>201</v>
-      </c>
-      <c r="K29" s="72" t="s">
-        <v>180</v>
-      </c>
-      <c r="L29" s="73" t="s">
-        <v>192</v>
       </c>
       <c r="M29" s="1"/>
       <c r="N29" s="1"/>
@@ -4498,22 +4586,22 @@
         <v>83</v>
       </c>
       <c r="G30" s="109" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H30" s="14" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I30" s="13" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="J30" s="14" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="K30" s="13" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="L30" s="14" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="M30" s="1"/>
       <c r="N30" s="1"/>
@@ -4549,22 +4637,22 @@
         <v>83</v>
       </c>
       <c r="G31" s="112" t="s">
+        <v>181</v>
+      </c>
+      <c r="H31" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="I31" s="16" t="s">
+        <v>173</v>
+      </c>
+      <c r="J31" s="17" t="s">
+        <v>185</v>
+      </c>
+      <c r="K31" s="16" t="s">
         <v>182</v>
       </c>
-      <c r="H31" s="17" t="s">
+      <c r="L31" s="17" t="s">
         <v>194</v>
-      </c>
-      <c r="I31" s="16" t="s">
-        <v>174</v>
-      </c>
-      <c r="J31" s="17" t="s">
-        <v>186</v>
-      </c>
-      <c r="K31" s="16" t="s">
-        <v>183</v>
-      </c>
-      <c r="L31" s="17" t="s">
-        <v>195</v>
       </c>
       <c r="M31" s="1"/>
       <c r="N31" s="1"/>
@@ -4672,22 +4760,22 @@
         <v>92</v>
       </c>
       <c r="G34" s="109" t="s">
+        <v>181</v>
+      </c>
+      <c r="H34" s="14" t="s">
+        <v>193</v>
+      </c>
+      <c r="I34" s="13" t="s">
+        <v>173</v>
+      </c>
+      <c r="J34" s="14" t="s">
+        <v>185</v>
+      </c>
+      <c r="K34" s="13" t="s">
         <v>182</v>
       </c>
-      <c r="H34" s="14" t="s">
+      <c r="L34" s="14" t="s">
         <v>194</v>
-      </c>
-      <c r="I34" s="13" t="s">
-        <v>174</v>
-      </c>
-      <c r="J34" s="14" t="s">
-        <v>186</v>
-      </c>
-      <c r="K34" s="13" t="s">
-        <v>183</v>
-      </c>
-      <c r="L34" s="14" t="s">
-        <v>195</v>
       </c>
       <c r="M34" s="1"/>
       <c r="N34" s="1"/>
@@ -4723,22 +4811,22 @@
         <v>92</v>
       </c>
       <c r="G35" s="106" t="s">
+        <v>181</v>
+      </c>
+      <c r="H35" s="54" t="s">
+        <v>193</v>
+      </c>
+      <c r="I35" s="11" t="s">
+        <v>173</v>
+      </c>
+      <c r="J35" s="54" t="s">
+        <v>185</v>
+      </c>
+      <c r="K35" s="11" t="s">
         <v>182</v>
       </c>
-      <c r="H35" s="54" t="s">
+      <c r="L35" s="54" t="s">
         <v>194</v>
-      </c>
-      <c r="I35" s="11" t="s">
-        <v>174</v>
-      </c>
-      <c r="J35" s="54" t="s">
-        <v>186</v>
-      </c>
-      <c r="K35" s="11" t="s">
-        <v>183</v>
-      </c>
-      <c r="L35" s="54" t="s">
-        <v>195</v>
       </c>
       <c r="M35" s="1"/>
       <c r="N35" s="1"/>
@@ -4774,22 +4862,22 @@
         <v>92</v>
       </c>
       <c r="G36" s="112" t="s">
+        <v>181</v>
+      </c>
+      <c r="H36" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="I36" s="16" t="s">
+        <v>173</v>
+      </c>
+      <c r="J36" s="17" t="s">
+        <v>185</v>
+      </c>
+      <c r="K36" s="16" t="s">
         <v>182</v>
       </c>
-      <c r="H36" s="17" t="s">
+      <c r="L36" s="17" t="s">
         <v>194</v>
-      </c>
-      <c r="I36" s="16" t="s">
-        <v>174</v>
-      </c>
-      <c r="J36" s="17" t="s">
-        <v>186</v>
-      </c>
-      <c r="K36" s="16" t="s">
-        <v>183</v>
-      </c>
-      <c r="L36" s="17" t="s">
-        <v>195</v>
       </c>
       <c r="M36" s="1"/>
       <c r="N36" s="1"/>
@@ -4824,25 +4912,25 @@
         <v>98</v>
       </c>
       <c r="F37" s="124" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="G37" s="105" t="s">
+        <v>172</v>
+      </c>
+      <c r="H37" s="71" t="s">
+        <v>184</v>
+      </c>
+      <c r="I37" s="70" t="s">
         <v>173</v>
       </c>
-      <c r="H37" s="71" t="s">
+      <c r="J37" s="71" t="s">
         <v>185</v>
       </c>
-      <c r="I37" s="70" t="s">
-        <v>174</v>
-      </c>
-      <c r="J37" s="71" t="s">
-        <v>186</v>
-      </c>
       <c r="K37" s="70" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="L37" s="71" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="M37" s="1"/>
       <c r="N37" s="1"/>
@@ -4875,25 +4963,25 @@
         <v>98</v>
       </c>
       <c r="F38" s="125" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="G38" s="106" t="s">
+        <v>172</v>
+      </c>
+      <c r="H38" s="54" t="s">
+        <v>184</v>
+      </c>
+      <c r="I38" s="11" t="s">
         <v>173</v>
       </c>
-      <c r="H38" s="54" t="s">
+      <c r="J38" s="54" t="s">
         <v>185</v>
       </c>
-      <c r="I38" s="11" t="s">
-        <v>174</v>
-      </c>
-      <c r="J38" s="54" t="s">
-        <v>186</v>
-      </c>
       <c r="K38" s="11" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="L38" s="54" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="M38" s="1"/>
       <c r="N38" s="1"/>
@@ -4926,25 +5014,25 @@
         <v>98</v>
       </c>
       <c r="F39" s="130" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="G39" s="112" t="s">
+        <v>172</v>
+      </c>
+      <c r="H39" s="17" t="s">
+        <v>184</v>
+      </c>
+      <c r="I39" s="16" t="s">
         <v>173</v>
       </c>
-      <c r="H39" s="17" t="s">
+      <c r="J39" s="17" t="s">
         <v>185</v>
       </c>
-      <c r="I39" s="16" t="s">
-        <v>174</v>
-      </c>
-      <c r="J39" s="17" t="s">
-        <v>186</v>
-      </c>
       <c r="K39" s="16" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="L39" s="17" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="M39" s="1"/>
       <c r="N39" s="1"/>
@@ -4982,22 +5070,22 @@
         <v>105</v>
       </c>
       <c r="G40" s="105" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H40" s="71" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I40" s="70" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="J40" s="71" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="K40" s="70" t="s">
+        <v>203</v>
+      </c>
+      <c r="L40" s="71" t="s">
         <v>205</v>
-      </c>
-      <c r="L40" s="71" t="s">
-        <v>207</v>
       </c>
       <c r="M40" s="1"/>
       <c r="N40" s="1"/>
@@ -5033,22 +5121,22 @@
         <v>105</v>
       </c>
       <c r="G41" s="105" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H41" s="54" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I41" s="70" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="J41" s="54" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="K41" s="70" t="s">
+        <v>203</v>
+      </c>
+      <c r="L41" s="71" t="s">
         <v>205</v>
-      </c>
-      <c r="L41" s="71" t="s">
-        <v>207</v>
       </c>
       <c r="M41" s="1"/>
       <c r="N41" s="1"/>
@@ -5084,22 +5172,22 @@
         <v>105</v>
       </c>
       <c r="G42" s="105" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H42" s="54" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I42" s="70" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="J42" s="54" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="K42" s="70" t="s">
+        <v>203</v>
+      </c>
+      <c r="L42" s="71" t="s">
         <v>205</v>
-      </c>
-      <c r="L42" s="71" t="s">
-        <v>207</v>
       </c>
       <c r="M42" s="1"/>
       <c r="N42" s="1"/>
@@ -5135,22 +5223,22 @@
         <v>105</v>
       </c>
       <c r="G43" s="105" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H43" s="54" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I43" s="70" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="J43" s="54" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="K43" s="70" t="s">
+        <v>203</v>
+      </c>
+      <c r="L43" s="71" t="s">
         <v>205</v>
-      </c>
-      <c r="L43" s="71" t="s">
-        <v>207</v>
       </c>
       <c r="M43" s="1"/>
       <c r="N43" s="1"/>
@@ -5186,22 +5274,22 @@
         <v>105</v>
       </c>
       <c r="G44" s="105" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H44" s="54" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I44" s="70" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="J44" s="54" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="K44" s="70" t="s">
+        <v>203</v>
+      </c>
+      <c r="L44" s="71" t="s">
         <v>205</v>
-      </c>
-      <c r="L44" s="71" t="s">
-        <v>207</v>
       </c>
       <c r="M44" s="1"/>
       <c r="N44" s="1"/>
@@ -5237,22 +5325,22 @@
         <v>105</v>
       </c>
       <c r="G45" s="105" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H45" s="54" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I45" s="70" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="J45" s="54" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="K45" s="70" t="s">
+        <v>203</v>
+      </c>
+      <c r="L45" s="71" t="s">
         <v>205</v>
-      </c>
-      <c r="L45" s="71" t="s">
-        <v>207</v>
       </c>
       <c r="M45" s="1"/>
       <c r="N45" s="1"/>
@@ -5288,22 +5376,22 @@
         <v>105</v>
       </c>
       <c r="G46" s="105" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H46" s="17" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I46" s="70" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="J46" s="17" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="K46" s="70" t="s">
+        <v>203</v>
+      </c>
+      <c r="L46" s="71" t="s">
         <v>205</v>
-      </c>
-      <c r="L46" s="71" t="s">
-        <v>207</v>
       </c>
       <c r="M46" s="1"/>
       <c r="N46" s="1"/>
@@ -5376,22 +5464,22 @@
         <v>120</v>
       </c>
       <c r="G48" s="116" t="s">
+        <v>178</v>
+      </c>
+      <c r="H48" s="79" t="s">
+        <v>190</v>
+      </c>
+      <c r="I48" s="47" t="s">
+        <v>173</v>
+      </c>
+      <c r="J48" s="79" t="s">
+        <v>185</v>
+      </c>
+      <c r="K48" s="47" t="s">
         <v>179</v>
       </c>
-      <c r="H48" s="79" t="s">
+      <c r="L48" s="79" t="s">
         <v>191</v>
-      </c>
-      <c r="I48" s="47" t="s">
-        <v>174</v>
-      </c>
-      <c r="J48" s="79" t="s">
-        <v>186</v>
-      </c>
-      <c r="K48" s="47" t="s">
-        <v>180</v>
-      </c>
-      <c r="L48" s="79" t="s">
-        <v>192</v>
       </c>
       <c r="M48" s="1"/>
       <c r="N48" s="1"/>
@@ -5413,10 +5501,10 @@
       <c r="A49" s="36" t="s">
         <v>149</v>
       </c>
-      <c r="B49" s="169" t="s">
+      <c r="B49" s="168" t="s">
         <v>150</v>
       </c>
-      <c r="C49" s="169" t="s">
+      <c r="C49" s="168" t="s">
         <v>8</v>
       </c>
       <c r="D49" s="46" t="s">
@@ -5448,8 +5536,8 @@
     </row>
     <row r="50" spans="1:27" ht="16.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="77"/>
-      <c r="B50" s="170"/>
-      <c r="C50" s="171"/>
+      <c r="B50" s="169"/>
+      <c r="C50" s="170"/>
       <c r="D50" s="33" t="s">
         <v>152</v>
       </c>
@@ -5497,22 +5585,22 @@
         <v>9</v>
       </c>
       <c r="G51" s="104" t="s">
+        <v>172</v>
+      </c>
+      <c r="H51" s="45" t="s">
+        <v>184</v>
+      </c>
+      <c r="I51" s="44" t="s">
         <v>173</v>
       </c>
-      <c r="H51" s="45" t="s">
+      <c r="J51" s="45" t="s">
         <v>185</v>
       </c>
-      <c r="I51" s="44" t="s">
-        <v>174</v>
-      </c>
-      <c r="J51" s="45" t="s">
-        <v>186</v>
-      </c>
       <c r="K51" s="44" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="L51" s="45" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="M51" s="1"/>
       <c r="N51" s="1"/>
@@ -32092,14 +32180,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CF5CE56-EC25-4FB7-A62C-2823D6365594}">
   <dimension ref="A1:Z1017"/>
   <sheetViews>
-    <sheetView topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+    <sheetView topLeftCell="A48" workbookViewId="0">
+      <selection activeCell="B50" sqref="B50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.42578125" customWidth="1"/>
-    <col min="2" max="2" width="96.5703125" customWidth="1"/>
+    <col min="2" max="2" width="117.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -32200,7 +32288,7 @@
     </row>
     <row r="4" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>163</v>
@@ -32683,7 +32771,7 @@
         <v>105</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
@@ -32778,7 +32866,7 @@
       <c r="A22" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="174" t="s">
         <v>146</v>
       </c>
       <c r="C22" s="1"/>
@@ -32807,13 +32895,13 @@
       <c r="Z22" s="1"/>
     </row>
     <row r="23" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="8" t="s">
+      <c r="A23" s="173" t="s">
         <v>120</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B23" s="175" t="s">
         <v>147</v>
       </c>
-      <c r="C23" s="1"/>
+      <c r="C23" s="9"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
@@ -32839,11 +32927,11 @@
       <c r="Z23" s="1"/>
     </row>
     <row r="24" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="B24" s="145"/>
-      <c r="C24" s="1"/>
+      <c r="A24" s="176" t="s">
+        <v>184</v>
+      </c>
+      <c r="B24" s="175"/>
+      <c r="C24" s="9"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
@@ -32870,10 +32958,10 @@
     </row>
     <row r="25" spans="1:26" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>219</v>
+        <v>185</v>
+      </c>
+      <c r="B25" s="177" t="s">
+        <v>217</v>
       </c>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -32902,10 +32990,10 @@
     </row>
     <row r="26" spans="1:26" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="7" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -32934,10 +33022,10 @@
     </row>
     <row r="27" spans="1:26" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -32966,10 +33054,10 @@
     </row>
     <row r="28" spans="1:26" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>200</v>
+        <v>270</v>
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -32998,10 +33086,10 @@
     </row>
     <row r="29" spans="1:26" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="7" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -33030,10 +33118,10 @@
     </row>
     <row r="30" spans="1:26" ht="90" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="7" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -33062,10 +33150,10 @@
     </row>
     <row r="31" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="7" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -33094,10 +33182,10 @@
     </row>
     <row r="32" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="7" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -33126,10 +33214,10 @@
     </row>
     <row r="33" spans="1:26" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -33158,10 +33246,10 @@
     </row>
     <row r="34" spans="1:26" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="7" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
@@ -33190,10 +33278,10 @@
     </row>
     <row r="35" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="7" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -33222,10 +33310,10 @@
     </row>
     <row r="36" spans="1:26" ht="102.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="7" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
@@ -33254,10 +33342,10 @@
     </row>
     <row r="37" spans="1:26" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="7" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
@@ -33286,7 +33374,7 @@
     </row>
     <row r="38" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" s="1"/>
@@ -33316,10 +33404,10 @@
     </row>
     <row r="39" spans="1:26" ht="77.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
@@ -33348,10 +33436,10 @@
     </row>
     <row r="40" spans="1:26" ht="77.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
@@ -33380,10 +33468,10 @@
     </row>
     <row r="41" spans="1:26" ht="102.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
@@ -33412,10 +33500,10 @@
     </row>
     <row r="42" spans="1:26" ht="102.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
@@ -33444,10 +33532,10 @@
     </row>
     <row r="43" spans="1:26" ht="77.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="6" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>171</v>
+        <v>271</v>
       </c>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
@@ -33476,10 +33564,10 @@
     </row>
     <row r="44" spans="1:26" ht="90" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
@@ -33508,10 +33596,10 @@
     </row>
     <row r="45" spans="1:26" ht="141" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
@@ -33540,7 +33628,7 @@
     </row>
     <row r="46" spans="1:26" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="6" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>161</v>
@@ -33572,10 +33660,10 @@
     </row>
     <row r="47" spans="1:26" ht="77.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="6" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
@@ -33604,10 +33692,10 @@
     </row>
     <row r="48" spans="1:26" ht="115.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="6" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
@@ -33636,10 +33724,10 @@
     </row>
     <row r="49" spans="1:26" ht="77.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="6" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
@@ -33668,10 +33756,10 @@
     </row>
     <row r="50" spans="1:26" ht="153.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="6" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
@@ -33700,10 +33788,10 @@
     </row>
     <row r="51" spans="1:26" ht="115.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="6" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
@@ -60785,206 +60873,236 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31D4665B-D115-4825-B0F1-BB5C2DC81169}">
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" style="154" customWidth="1"/>
-    <col min="2" max="2" width="105.7109375" style="157" customWidth="1"/>
-    <col min="3" max="3" width="104.140625" style="157" customWidth="1"/>
-    <col min="4" max="16384" width="11.42578125" style="153"/>
+    <col min="1" max="1" width="19.28515625" style="153" customWidth="1"/>
+    <col min="2" max="2" width="105.7109375" style="156" customWidth="1"/>
+    <col min="3" max="3" width="104.140625" style="156" customWidth="1"/>
+    <col min="4" max="16384" width="11.42578125" style="152"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="152" t="s">
+      <c r="A1" s="151" t="s">
         <v>128</v>
       </c>
-      <c r="B1" s="155" t="s">
+      <c r="B1" s="154" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="155" t="s">
+      <c r="C1" s="154" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="129" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="163" t="s">
+      <c r="A2" s="162" t="s">
+        <v>221</v>
+      </c>
+      <c r="B2" s="159" t="s">
+        <v>225</v>
+      </c>
+      <c r="C2" s="161"/>
+    </row>
+    <row r="3" spans="1:7" ht="157.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="158" t="s">
+        <v>222</v>
+      </c>
+      <c r="B3" s="159" t="s">
+        <v>227</v>
+      </c>
+      <c r="C3" s="161"/>
+    </row>
+    <row r="4" spans="1:7" ht="143.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="158" t="s">
         <v>223</v>
       </c>
-      <c r="B2" s="160" t="s">
-        <v>227</v>
-      </c>
-      <c r="C2" s="162"/>
-    </row>
-    <row r="3" spans="1:7" ht="157.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="159" t="s">
+      <c r="B4" s="159" t="s">
+        <v>234</v>
+      </c>
+      <c r="C4" s="161"/>
+    </row>
+    <row r="5" spans="1:7" ht="257.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="158" t="s">
         <v>224</v>
       </c>
-      <c r="B3" s="160" t="s">
+      <c r="B5" s="159" t="s">
+        <v>253</v>
+      </c>
+      <c r="C5" s="160" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="228" x14ac:dyDescent="0.2">
+      <c r="A6" s="157" t="s">
+        <v>228</v>
+      </c>
+      <c r="B6" s="163" t="s">
+        <v>226</v>
+      </c>
+      <c r="C6" s="163" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="185.25" x14ac:dyDescent="0.2">
+      <c r="A7" s="157" t="s">
         <v>229</v>
       </c>
-      <c r="C3" s="162"/>
-    </row>
-    <row r="4" spans="1:7" ht="143.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="159" t="s">
-        <v>225</v>
-      </c>
-      <c r="B4" s="160" t="s">
-        <v>236</v>
-      </c>
-      <c r="C4" s="162"/>
-    </row>
-    <row r="5" spans="1:7" ht="257.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="159" t="s">
-        <v>226</v>
-      </c>
-      <c r="B5" s="160" t="s">
+      <c r="B7" s="164" t="s">
+        <v>232</v>
+      </c>
+      <c r="C7" s="155"/>
+    </row>
+    <row r="8" spans="1:7" ht="199.5" x14ac:dyDescent="0.2">
+      <c r="A8" s="157" t="s">
+        <v>230</v>
+      </c>
+      <c r="B8" s="164" t="s">
+        <v>233</v>
+      </c>
+      <c r="C8" s="155"/>
+    </row>
+    <row r="9" spans="1:7" ht="156.75" x14ac:dyDescent="0.2">
+      <c r="A9" s="157" t="s">
+        <v>231</v>
+      </c>
+      <c r="B9" s="164" t="s">
+        <v>238</v>
+      </c>
+      <c r="C9" s="155"/>
+    </row>
+    <row r="10" spans="1:7" ht="270.75" x14ac:dyDescent="0.2">
+      <c r="A10" s="157" t="s">
+        <v>239</v>
+      </c>
+      <c r="B10" s="165" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="156.75" x14ac:dyDescent="0.2">
+      <c r="A11" s="157" t="s">
+        <v>241</v>
+      </c>
+      <c r="B11" s="164" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="142.5" x14ac:dyDescent="0.2">
+      <c r="A12" s="157" t="s">
+        <v>243</v>
+      </c>
+      <c r="B12" s="164" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="228" x14ac:dyDescent="0.2">
+      <c r="A13" s="157" t="s">
+        <v>245</v>
+      </c>
+      <c r="B13" s="164" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="99.75" x14ac:dyDescent="0.2">
+      <c r="A14" s="180" t="s">
+        <v>247</v>
+      </c>
+      <c r="B14" s="164" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="171.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="180" t="s">
+        <v>249</v>
+      </c>
+      <c r="B15" s="164" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="257.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="178" t="s">
+        <v>251</v>
+      </c>
+      <c r="B16" s="179" t="s">
+        <v>253</v>
+      </c>
+      <c r="C16" s="160" t="s">
+        <v>256</v>
+      </c>
+      <c r="G16" s="166"/>
+    </row>
+    <row r="17" spans="1:3" ht="228" x14ac:dyDescent="0.2">
+      <c r="A17" s="157" t="s">
+        <v>252</v>
+      </c>
+      <c r="B17" s="163" t="s">
+        <v>257</v>
+      </c>
+      <c r="C17" s="163" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="114" x14ac:dyDescent="0.2">
+      <c r="A18" s="180" t="s">
+        <v>254</v>
+      </c>
+      <c r="B18" s="164" t="s">
         <v>255</v>
       </c>
-      <c r="C5" s="161" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="228" x14ac:dyDescent="0.2">
-      <c r="A6" s="158" t="s">
-        <v>230</v>
-      </c>
-      <c r="B6" s="164" t="s">
-        <v>228</v>
-      </c>
-      <c r="C6" s="164" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="185.25" x14ac:dyDescent="0.2">
-      <c r="A7" s="158" t="s">
-        <v>231</v>
-      </c>
-      <c r="B7" s="165" t="s">
-        <v>234</v>
-      </c>
-      <c r="C7" s="156"/>
-    </row>
-    <row r="8" spans="1:7" ht="199.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="158" t="s">
-        <v>232</v>
-      </c>
-      <c r="B8" s="165" t="s">
-        <v>235</v>
-      </c>
-      <c r="C8" s="156"/>
-    </row>
-    <row r="9" spans="1:7" ht="156.75" x14ac:dyDescent="0.2">
-      <c r="A9" s="158" t="s">
-        <v>233</v>
-      </c>
-      <c r="B9" s="165" t="s">
-        <v>240</v>
-      </c>
-      <c r="C9" s="156"/>
-    </row>
-    <row r="10" spans="1:7" ht="270.75" x14ac:dyDescent="0.2">
-      <c r="A10" s="158" t="s">
-        <v>241</v>
-      </c>
-      <c r="B10" s="166" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="156.75" x14ac:dyDescent="0.2">
-      <c r="A11" s="158" t="s">
-        <v>243</v>
-      </c>
-      <c r="B11" s="165" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="142.5" x14ac:dyDescent="0.2">
-      <c r="A12" s="158" t="s">
-        <v>245</v>
-      </c>
-      <c r="B12" s="165" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="228" x14ac:dyDescent="0.2">
-      <c r="A13" s="158" t="s">
-        <v>247</v>
-      </c>
-      <c r="B13" s="165" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="99.75" x14ac:dyDescent="0.2">
-      <c r="A14" s="154" t="s">
-        <v>249</v>
-      </c>
-      <c r="B14" s="166" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="171.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="154" t="s">
-        <v>251</v>
-      </c>
-      <c r="B15" s="166" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="257.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="159" t="s">
-        <v>253</v>
-      </c>
-      <c r="B16" s="160" t="s">
-        <v>255</v>
-      </c>
-      <c r="C16" s="161" t="s">
-        <v>258</v>
-      </c>
-      <c r="G16" s="167"/>
-    </row>
-    <row r="17" spans="1:3" ht="228" x14ac:dyDescent="0.2">
-      <c r="A17" s="158" t="s">
-        <v>254</v>
-      </c>
-      <c r="B17" s="164" t="s">
+      <c r="C18" s="155"/>
+    </row>
+    <row r="19" spans="1:3" ht="228" x14ac:dyDescent="0.2">
+      <c r="A19" s="180" t="s">
         <v>259</v>
       </c>
-      <c r="C17" s="164" t="s">
+      <c r="B19" s="164" t="s">
+        <v>261</v>
+      </c>
+      <c r="C19" s="164" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="228.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="180" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" ht="114" x14ac:dyDescent="0.2">
-      <c r="A18" s="158" t="s">
-        <v>256</v>
-      </c>
-      <c r="B18" s="166" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="228" x14ac:dyDescent="0.2">
-      <c r="A19" s="154" t="s">
-        <v>261</v>
-      </c>
-      <c r="B19" s="166" t="s">
+      <c r="B20" s="164" t="s">
         <v>263</v>
       </c>
-      <c r="C19" s="166" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="213.75" x14ac:dyDescent="0.2">
-      <c r="A20" s="154" t="s">
-        <v>262</v>
-      </c>
-      <c r="B20" s="166" t="s">
-        <v>265</v>
-      </c>
-      <c r="C20" s="166" t="s">
-        <v>266</v>
+      <c r="C20" s="164" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="114.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="162" t="s">
+        <v>273</v>
+      </c>
+      <c r="B21" s="159" t="s">
+        <v>277</v>
+      </c>
+      <c r="C21" s="161"/>
+    </row>
+    <row r="22" spans="1:3" ht="156.75" x14ac:dyDescent="0.2">
+      <c r="A22" s="180" t="s">
+        <v>274</v>
+      </c>
+      <c r="B22" s="164" t="s">
+        <v>272</v>
+      </c>
+      <c r="C22" s="155"/>
+    </row>
+    <row r="23" spans="1:3" ht="99.75" x14ac:dyDescent="0.2">
+      <c r="A23" s="180" t="s">
+        <v>276</v>
+      </c>
+      <c r="B23" s="164" t="s">
+        <v>278</v>
+      </c>
+      <c r="C23" s="164" t="s">
+        <v>275</v>
       </c>
     </row>
   </sheetData>

--- a/data/CotsList.xlsx
+++ b/data/CotsList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rserghine\Projects React\DsiCenter_Excel\public\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B034057C-0346-4DFF-B2FB-EC03DBE5371E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{591D4E60-D238-4CCC-9987-EDBFD6C6A430}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{67F2D85F-F75B-4B61-9855-239B084B2F7E}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="655" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="673" uniqueCount="298">
   <si>
     <t>APPLICATION</t>
   </si>
@@ -1343,6 +1343,123 @@
 Best regards
 </t>
   </si>
+  <si>
+    <t>Msg 6D</t>
+  </si>
+  <si>
+    <t>Msg 6E</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dear user,
+We provided you the Visual stuidio XXXX license key by mail.
+You can now activate it with your Admin rights.
+Please keep us informed and not cancel the incident.
+Thank you.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IN REQUEST
+***************
+Dear user,
+You want to activate the "Visual studio XXXX" license key we sent you by mail.
+You have not Admin rights for that.
+We created a new incident INCxxxxx, so a technician will contact and help you remotely.
+Please provide your availabitity in this new incident when he will request it.
+Please keep us informed and not cancel incidents.
+Thank you.
+Best regards.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IN INCIDENT
+**************
+Hello SCCM team,
+This user has an access request approved for "Visual studio XXXX" and the Airbus remote control team installed it remotely.
+He wants, now, to activate its license key we provided by mail to him.
+He has not Admin rights for that.
+As usual, can you, please, help him remotely.
+Thank you.
+Best regards.
+</t>
+  </si>
+  <si>
+    <t>Msg 6F</t>
+  </si>
+  <si>
+    <t>Msg 6G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dear user,
+You activated the Visual studio XXXX license key with the help of the Airbus Techbar.
+We close the Request.
+Best regards.
+</t>
+  </si>
+  <si>
+    <t>Dear user,
+You want to activate the "Visual studio XXXX" license key we sent you by mail.
+You have not Admin rights for that.
+We suggest you to go the Airbus Techbar, so a technician will help you.
+Please keep us informed and not cancel incidents.
+Thank you.
+Best regards.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The user activated the Visual studio XXXX license key with the help of the Airbus techbar.
+Request closed.
+</t>
+  </si>
+  <si>
+    <t>Msg 6H</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dear user,
+You activated the Visual studio XXXX license key with the help of the Airbus remote control team.
+We close the Request.
+Best regards.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The user activated the Visual studio XXXX license key with the help of the Airbus remote control team.
+Request closed.
+</t>
+  </si>
+  <si>
+    <t>Msg 2E</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dear user,
+According to our information, you have never had an access request approved for "Visual studio XXXX"
+Please provide us the below information:
+Where did you get: "Visua studio XXXX"
+Thank you.
+Best regards.
+</t>
+  </si>
+  <si>
+    <t>Msg 2F</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dear user,
+You have not installed "Visual studio XXXX" according Airbus rules.
+An access request approved must be associated with its installation.
+Please:
+1) Uninstall you current "Visual studio XXXX" (optional)
+2) Go the Airbus Software catalogue
+   Link : https://airbus.service-now.com/esc?id=airbus_software_package_catalog
+3) Create a access request for "Visual studio XXXX" (see image attached)
+4) After30 trial days, you will have to create a request to get the perpetual license key and we will provide it by      mail.
+     Link : https://airbus.service-now.com/esc?id=sc_cat_item&amp;sys_id=fab02450eb09ea1861cbf264bad0cddc&amp;table=sc_cat_item&amp;searchTerm=request%20management
+We close the request.
+Thank you.
+Best regards.
+</t>
+  </si>
+  <si>
+    <t>The user did not install "Visual studio XXXX" according Airbus rules.
+An access request approved must be associated with its installation.
+Request closed</t>
+  </si>
 </sst>
 </file>
 
@@ -2301,7 +2418,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="181">
+  <cellXfs count="183">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2784,17 +2901,6 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -2818,6 +2924,23 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3194,18 +3317,18 @@
       <c r="F1" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="171" t="s">
+      <c r="G1" s="179" t="s">
         <v>168</v>
       </c>
-      <c r="H1" s="172"/>
-      <c r="I1" s="171" t="s">
+      <c r="H1" s="180"/>
+      <c r="I1" s="179" t="s">
         <v>169</v>
       </c>
-      <c r="J1" s="172"/>
-      <c r="K1" s="171" t="s">
+      <c r="J1" s="180"/>
+      <c r="K1" s="179" t="s">
         <v>170</v>
       </c>
-      <c r="L1" s="172"/>
+      <c r="L1" s="180"/>
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
@@ -5501,10 +5624,10 @@
       <c r="A49" s="36" t="s">
         <v>149</v>
       </c>
-      <c r="B49" s="168" t="s">
+      <c r="B49" s="176" t="s">
         <v>150</v>
       </c>
-      <c r="C49" s="168" t="s">
+      <c r="C49" s="176" t="s">
         <v>8</v>
       </c>
       <c r="D49" s="46" t="s">
@@ -5536,8 +5659,8 @@
     </row>
     <row r="50" spans="1:27" ht="16.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="77"/>
-      <c r="B50" s="169"/>
-      <c r="C50" s="170"/>
+      <c r="B50" s="177"/>
+      <c r="C50" s="178"/>
       <c r="D50" s="33" t="s">
         <v>152</v>
       </c>
@@ -32866,7 +32989,7 @@
       <c r="A22" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="B22" s="174" t="s">
+      <c r="B22" s="169" t="s">
         <v>146</v>
       </c>
       <c r="C22" s="1"/>
@@ -32895,10 +33018,10 @@
       <c r="Z22" s="1"/>
     </row>
     <row r="23" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="173" t="s">
+      <c r="A23" s="168" t="s">
         <v>120</v>
       </c>
-      <c r="B23" s="175" t="s">
+      <c r="B23" s="170" t="s">
         <v>147</v>
       </c>
       <c r="C23" s="9"/>
@@ -32927,10 +33050,10 @@
       <c r="Z23" s="1"/>
     </row>
     <row r="24" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="176" t="s">
+      <c r="A24" s="171" t="s">
         <v>184</v>
       </c>
-      <c r="B24" s="175"/>
+      <c r="B24" s="170"/>
       <c r="C24" s="9"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
@@ -32960,7 +33083,7 @@
       <c r="A25" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="B25" s="177" t="s">
+      <c r="B25" s="172" t="s">
         <v>217</v>
       </c>
       <c r="C25" s="1"/>
@@ -60873,21 +60996,21 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31D4665B-D115-4825-B0F1-BB5C2DC81169}">
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="19.28515625" style="153" customWidth="1"/>
     <col min="2" max="2" width="105.7109375" style="156" customWidth="1"/>
-    <col min="3" max="3" width="104.140625" style="156" customWidth="1"/>
+    <col min="3" max="3" width="111.7109375" style="156" customWidth="1"/>
     <col min="4" max="16384" width="11.42578125" style="152"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="151" t="s">
         <v>128</v>
       </c>
@@ -60898,7 +61021,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="129" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="129" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="162" t="s">
         <v>221</v>
       </c>
@@ -60907,7 +61030,7 @@
       </c>
       <c r="C2" s="161"/>
     </row>
-    <row r="3" spans="1:7" ht="157.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="157.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="158" t="s">
         <v>222</v>
       </c>
@@ -60916,7 +61039,7 @@
       </c>
       <c r="C3" s="161"/>
     </row>
-    <row r="4" spans="1:7" ht="143.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="143.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="158" t="s">
         <v>223</v>
       </c>
@@ -60925,7 +61048,7 @@
       </c>
       <c r="C4" s="161"/>
     </row>
-    <row r="5" spans="1:7" ht="257.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="257.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="158" t="s">
         <v>224</v>
       </c>
@@ -60936,7 +61059,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="228" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" ht="228" x14ac:dyDescent="0.2">
       <c r="A6" s="157" t="s">
         <v>228</v>
       </c>
@@ -60947,7 +61070,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="185.25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" ht="185.25" x14ac:dyDescent="0.2">
       <c r="A7" s="157" t="s">
         <v>229</v>
       </c>
@@ -60956,7 +61079,7 @@
       </c>
       <c r="C7" s="155"/>
     </row>
-    <row r="8" spans="1:7" ht="199.5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" ht="199.5" x14ac:dyDescent="0.2">
       <c r="A8" s="157" t="s">
         <v>230</v>
       </c>
@@ -60965,7 +61088,7 @@
       </c>
       <c r="C8" s="155"/>
     </row>
-    <row r="9" spans="1:7" ht="156.75" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" ht="156.75" x14ac:dyDescent="0.2">
       <c r="A9" s="157" t="s">
         <v>231</v>
       </c>
@@ -60974,7 +61097,7 @@
       </c>
       <c r="C9" s="155"/>
     </row>
-    <row r="10" spans="1:7" ht="270.75" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" ht="270.75" x14ac:dyDescent="0.2">
       <c r="A10" s="157" t="s">
         <v>239</v>
       </c>
@@ -60982,127 +61105,197 @@
         <v>240</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="156.75" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" ht="156.75" x14ac:dyDescent="0.2">
       <c r="A11" s="157" t="s">
+        <v>293</v>
+      </c>
+      <c r="B11" s="164" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="356.25" x14ac:dyDescent="0.2">
+      <c r="A12" s="157" t="s">
+        <v>295</v>
+      </c>
+      <c r="B12" s="165" t="s">
+        <v>296</v>
+      </c>
+      <c r="C12" s="165" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="156.75" x14ac:dyDescent="0.2">
+      <c r="A13" s="157" t="s">
         <v>241</v>
       </c>
-      <c r="B11" s="164" t="s">
+      <c r="B13" s="164" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="142.5" x14ac:dyDescent="0.2">
-      <c r="A12" s="157" t="s">
+    <row r="14" spans="1:3" ht="142.5" x14ac:dyDescent="0.2">
+      <c r="A14" s="157" t="s">
         <v>243</v>
       </c>
-      <c r="B12" s="164" t="s">
+      <c r="B14" s="164" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="228" x14ac:dyDescent="0.2">
-      <c r="A13" s="157" t="s">
+    <row r="15" spans="1:3" ht="228" x14ac:dyDescent="0.2">
+      <c r="A15" s="157" t="s">
         <v>245</v>
       </c>
-      <c r="B13" s="164" t="s">
+      <c r="B15" s="164" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="99.75" x14ac:dyDescent="0.2">
-      <c r="A14" s="180" t="s">
+    <row r="16" spans="1:3" ht="99.75" x14ac:dyDescent="0.2">
+      <c r="A16" s="175" t="s">
         <v>247</v>
       </c>
-      <c r="B14" s="164" t="s">
+      <c r="B16" s="164" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="171.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="180" t="s">
+    <row r="17" spans="1:7" ht="171.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="175" t="s">
         <v>249</v>
       </c>
-      <c r="B15" s="164" t="s">
+      <c r="B17" s="164" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="257.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="178" t="s">
+    <row r="18" spans="1:7" ht="257.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="173" t="s">
         <v>251</v>
       </c>
-      <c r="B16" s="179" t="s">
+      <c r="B18" s="174" t="s">
         <v>253</v>
       </c>
-      <c r="C16" s="160" t="s">
+      <c r="C18" s="160" t="s">
         <v>256</v>
       </c>
-      <c r="G16" s="166"/>
-    </row>
-    <row r="17" spans="1:3" ht="228" x14ac:dyDescent="0.2">
-      <c r="A17" s="157" t="s">
+      <c r="G18" s="166"/>
+    </row>
+    <row r="19" spans="1:7" ht="228" x14ac:dyDescent="0.2">
+      <c r="A19" s="157" t="s">
         <v>252</v>
       </c>
-      <c r="B17" s="163" t="s">
+      <c r="B19" s="163" t="s">
         <v>257</v>
       </c>
-      <c r="C17" s="163" t="s">
+      <c r="C19" s="163" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="114" x14ac:dyDescent="0.2">
-      <c r="A18" s="180" t="s">
+    <row r="20" spans="1:7" ht="114" x14ac:dyDescent="0.2">
+      <c r="A20" s="175" t="s">
         <v>254</v>
       </c>
-      <c r="B18" s="164" t="s">
+      <c r="B20" s="164" t="s">
         <v>255</v>
       </c>
-      <c r="C18" s="155"/>
-    </row>
-    <row r="19" spans="1:3" ht="228" x14ac:dyDescent="0.2">
-      <c r="A19" s="180" t="s">
+      <c r="C20" s="155"/>
+    </row>
+    <row r="21" spans="1:7" ht="228" x14ac:dyDescent="0.2">
+      <c r="A21" s="175" t="s">
         <v>259</v>
       </c>
-      <c r="B19" s="164" t="s">
+      <c r="B21" s="164" t="s">
         <v>261</v>
       </c>
-      <c r="C19" s="164" t="s">
+      <c r="C21" s="164" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="228.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="180" t="s">
+    <row r="22" spans="1:7" ht="228.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="175" t="s">
         <v>260</v>
       </c>
-      <c r="B20" s="164" t="s">
+      <c r="B22" s="164" t="s">
         <v>263</v>
       </c>
-      <c r="C20" s="164" t="s">
+      <c r="C22" s="164" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="114.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="162" t="s">
+    <row r="23" spans="1:7" ht="114.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="162" t="s">
         <v>273</v>
       </c>
-      <c r="B21" s="159" t="s">
+      <c r="B23" s="159" t="s">
         <v>277</v>
       </c>
-      <c r="C21" s="161"/>
-    </row>
-    <row r="22" spans="1:3" ht="156.75" x14ac:dyDescent="0.2">
-      <c r="A22" s="180" t="s">
+      <c r="C23" s="161"/>
+    </row>
+    <row r="24" spans="1:7" ht="156.75" x14ac:dyDescent="0.2">
+      <c r="A24" s="175" t="s">
         <v>274</v>
       </c>
-      <c r="B22" s="164" t="s">
+      <c r="B24" s="164" t="s">
         <v>272</v>
       </c>
-      <c r="C22" s="155"/>
-    </row>
-    <row r="23" spans="1:3" ht="99.75" x14ac:dyDescent="0.2">
-      <c r="A23" s="180" t="s">
+      <c r="C24" s="155"/>
+    </row>
+    <row r="25" spans="1:7" ht="114" x14ac:dyDescent="0.2">
+      <c r="A25" s="175" t="s">
         <v>276</v>
       </c>
-      <c r="B23" s="164" t="s">
+      <c r="B25" s="164" t="s">
+        <v>282</v>
+      </c>
+      <c r="C25" s="155"/>
+    </row>
+    <row r="26" spans="1:7" ht="99.75" x14ac:dyDescent="0.2">
+      <c r="A26" s="175" t="s">
+        <v>280</v>
+      </c>
+      <c r="B26" s="164" t="s">
         <v>278</v>
       </c>
-      <c r="C23" s="164" t="s">
+      <c r="C26" s="164" t="s">
         <v>275</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="156.75" x14ac:dyDescent="0.2">
+      <c r="A27" s="181" t="s">
+        <v>281</v>
+      </c>
+      <c r="B27" s="182" t="s">
+        <v>288</v>
+      </c>
+      <c r="C27" s="182"/>
+    </row>
+    <row r="28" spans="1:7" ht="228" x14ac:dyDescent="0.2">
+      <c r="A28" s="153" t="s">
+        <v>285</v>
+      </c>
+      <c r="B28" s="165" t="s">
+        <v>283</v>
+      </c>
+      <c r="C28" s="165" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="99.75" x14ac:dyDescent="0.2">
+      <c r="A29" s="175" t="s">
+        <v>286</v>
+      </c>
+      <c r="B29" s="164" t="s">
+        <v>287</v>
+      </c>
+      <c r="C29" s="164" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="99.75" x14ac:dyDescent="0.2">
+      <c r="A30" s="175" t="s">
+        <v>290</v>
+      </c>
+      <c r="B30" s="164" t="s">
+        <v>291</v>
+      </c>
+      <c r="C30" s="164" t="s">
+        <v>292</v>
       </c>
     </row>
   </sheetData>

--- a/data/CotsList.xlsx
+++ b/data/CotsList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rserghine\Projects React\DsiCenter_Excel\public\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{591D4E60-D238-4CCC-9987-EDBFD6C6A430}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6705008-A9DE-4821-976D-72908262982B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{67F2D85F-F75B-4B61-9855-239B084B2F7E}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="673" uniqueCount="298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="677" uniqueCount="302">
   <si>
     <t>APPLICATION</t>
   </si>
@@ -1460,6 +1460,36 @@
 An access request approved must be associated with its installation.
 Request closed</t>
   </si>
+  <si>
+    <t>Msg 7A</t>
+  </si>
+  <si>
+    <t>Msg 7B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hello user,
+Please try to install Visual Studio Code from Pc Services AND Software center.
+If Failed:
+Please follow this process:
+1) Uninstall "Visual studio code" from Software center (if installed).
+2) Delete the folder : C:\Users\YOUR_USER_ID\AppData\Roaming\Code
+3) Install "Visual studio code" from Software center
+4) Open "Visual studio code"
+Please keep us informed and not cancel the incident.
+Thank you
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hello user,
+You cannot install Visual studio code with Pc Services/Software center.
+You can download and install it freely and safely from the link:
+https://ftsplus.airbus.corp/Rached-FTSPlus/Temp/VS%20Code/
+Click on "VSCodeUserSetup-xxxxxxx.exe" (see attached screenshot).
+Please keep us informed and not cancel the incident.
+Thank you.
+Best regards.
+</t>
+  </si>
 </sst>
 </file>
 
@@ -2418,7 +2448,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="183">
+  <cellXfs count="181">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2936,12 +2966,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -60996,10 +61020,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31D4665B-D115-4825-B0F1-BB5C2DC81169}">
-  <dimension ref="A1:G30"/>
+  <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -61257,13 +61281,13 @@
       </c>
     </row>
     <row r="27" spans="1:7" ht="156.75" x14ac:dyDescent="0.2">
-      <c r="A27" s="181" t="s">
+      <c r="A27" s="153" t="s">
         <v>281</v>
       </c>
-      <c r="B27" s="182" t="s">
+      <c r="B27" s="165" t="s">
         <v>288</v>
       </c>
-      <c r="C27" s="182"/>
+      <c r="C27" s="165"/>
     </row>
     <row r="28" spans="1:7" ht="228" x14ac:dyDescent="0.2">
       <c r="A28" s="153" t="s">
@@ -61296,6 +61320,22 @@
       </c>
       <c r="C30" s="164" t="s">
         <v>292</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="199.5" x14ac:dyDescent="0.2">
+      <c r="A31" s="153" t="s">
+        <v>298</v>
+      </c>
+      <c r="B31" s="165" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="199.5" x14ac:dyDescent="0.2">
+      <c r="A32" s="153" t="s">
+        <v>299</v>
+      </c>
+      <c r="B32" s="165" t="s">
+        <v>301</v>
       </c>
     </row>
   </sheetData>

--- a/data/CotsList.xlsx
+++ b/data/CotsList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rserghine\Projects React\DsiCenter_Excel\public\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6705008-A9DE-4821-976D-72908262982B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85F555F6-5232-4AF0-8189-ADCA2DF61994}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{67F2D85F-F75B-4B61-9855-239B084B2F7E}"/>
   </bookViews>
@@ -891,32 +891,6 @@
     <t>Msg 1D</t>
   </si>
   <si>
-    <t xml:space="preserve">Dear user,
-Please provide us below informations:
-The exact name/version of the application concerned.
-Thank you.
-Best regards
-</t>
-  </si>
-  <si>
-    <t>Dear user,
-You want to install (or uninstall) **COTS** from Pc Services/Software center but it failed.
-(if copy : We created a new incident INCxxxxx, so) a technician will contact and help you remotely.
-Please provide your availabitity (if copy = in this new incident INCxxxxx) when requested.
-Please keep us informed and not cancel incidents.
-Thank you.
-Best regards.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dear user,
-**COTS** is free in Pc Services AND Software center (centre logiciel).
-Please try to install/uninstall it from BOTH. 
-Please keep us informed and not cancel the incident.
-Thank you.
-Best regards.
-</t>
-  </si>
-  <si>
     <t>Msg 1E</t>
   </si>
   <si>
@@ -927,37 +901,6 @@
   </si>
   <si>
     <t>Msg 2C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dear user,
-**COTS** is Free in Pc Services/Software Center.
-Please provide us the below informations.
-1) Where did you download **COTS** from ? (optional)
-2) Did it work before ? (optional)
-3) A full screen-image of the error message. (optional)
-Thank you.
-Best regards.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dear user,
-You have not installed **COTS** according Airbus rules.
-Please:
-1) Uninstall your current **COTS**
-2) Install it freely by Pc Services/Software Center (see image attached).
-Please keep us informed and not cancel the incident.
-Thank you.
-Best regards.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dear user,
-Please provide us the below informations.
-1) Do you have Admin rights ?
-2) Are you in an Airbus Site or offSite ?
-Thank you.
-Best regards.
-</t>
   </si>
   <si>
     <t xml:space="preserve">Hello team,
@@ -993,94 +936,22 @@
 Awaiting the response.</t>
   </si>
   <si>
-    <t xml:space="preserve">Dear user,
-According to our information, you have never had an access request approved for **COTS**.
-Please provide us the below information:
-Where did you get: **COTS**
-Thank you.
-Best regards.
-</t>
-  </si>
-  <si>
     <t>Msg 2D</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dear user,
-You have not installed **COTS** according Airbus rules.
-An access request approved must be associated with its installation.
-Please:
-1) Uninstall you current "**COTS**.(optional)
-2) Go the Airbus Software catalogue
-   Link : https://airbus.service-now.com/esc?id=airbus_software_package_catalog
-3) Create a access request for **COTS** (see image attached)
-We will keep you informed..
-Thank you.
-Best regards.
-</t>
   </si>
   <si>
     <t>Msg 3A</t>
   </si>
   <si>
-    <t xml:space="preserve">Dear user,
-Please provide us the below informations.
-1) What is the exact name/version of **COTS** you use ? 
-2) Did it work before ? (optional)
-3) A full screen-image of the error message. (optional)
-Thank you.
-Best regards.
-</t>
-  </si>
-  <si>
     <t>Msg 3B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dear user,
-Please provide us the below informations.
-2) Did it work before ? (optional)
-3) A full screen-image of the error message. (optional)
-Thank you.
-Best regards.
-</t>
   </si>
   <si>
     <t>Msg 4A</t>
   </si>
   <si>
-    <t xml:space="preserve">Dear user,
-To get ***COTS***, please:
-1) Go the Airbus Software catalogue
-   Link : https://airbus.service-now.com/esc?id=airbus_software_package_catalog
-2) Create a access request for **COTS** (see image attached)
-3) Once approved, you will can install it from Pc Services/Software center (Centre logiciel).
-We will keep you informed, please not cancel the incident.
-Thank you.
-Best regards.
-</t>
-  </si>
-  <si>
     <t>Msg 4B</t>
   </si>
   <si>
-    <t xml:space="preserve">Dear user,
-Your access request was not approved because…...
-Thank you.
-Best regards.
-</t>
-  </si>
-  <si>
     <t>Msg 4C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dear user 
-Your RITMxxx access request has been approved.
-The technician handling this request will contact you to remotely install **COTS**.
-We have provided all the information to assist you.
-We will close the incident.
-If you have any further questions regarding the same issue, please do not reopen it.
-You can contact us via Google chat/email (cots_dsi.external@airbus.com).
-Do you agree?
-</t>
   </si>
   <si>
     <t>Msg 4D</t>
@@ -1089,23 +960,7 @@
     <t>Msg 4E</t>
   </si>
   <si>
-    <t>Dear user,
-You want to install (or uninstall) **COTS** but it failed.
-We suggest you to go the Tech Bar of your Airbus site, so a technician will help you to install it manually.
-Please keep us informed and not cancel the ticket.
-Thank you.
-Best regards.</t>
-  </si>
-  <si>
     <t>Msg 4F</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dear user,
-We will help you to install **COTS** manually.
-1) ....
-2) ….
-Do you agree ?
-</t>
   </si>
   <si>
     <t xml:space="preserve">Hello team,
@@ -1121,15 +976,6 @@
 Thank you very much.
 Best regards
 </t>
-  </si>
-  <si>
-    <t>Dear user,
-You want to install (or uninstall) **COTS** but it failed.
-(if copy : We created a new incident INCxxxxx, so) a technician will contact and help you remotely.
-Please provide your availabitity (if copy = in this new incident INCxxxxx) when requested.
-Please keep us informed and not cancel incidents.
-Thank you.
-Best regards.</t>
   </si>
   <si>
     <t xml:space="preserve">Hello team,
@@ -1152,16 +998,6 @@
     <t>Msg 5B</t>
   </si>
   <si>
-    <t xml:space="preserve">Dear user,
-You want to ...
-You have not Admin rights for that.
-We suggest you to go the Tech Bar of your Airbus site, so a technician will help you.
-Please keep us informed and not cancel incidents.
-Thank you.
-Best regards.
-</t>
-  </si>
-  <si>
     <t xml:space="preserve">Hello team,
 The user wants to...
 He has not Admin rights for that.
@@ -1173,16 +1009,6 @@
 Thank you very much.
 Best regards
 </t>
-  </si>
-  <si>
-    <t>Dear user,
-You want to ...
-You have not Admin rights for that.
-(if copy : We created a new incident INCxxxxx, so) a technician will contact and help you remotely.
-Please provide your availabitity (if copy = in this new incident INCxxxxx) when requested.
-Please keep us informed and not cancel incidents.
-Thank you.
-Best regards.</t>
   </si>
   <si>
     <t>PROOSIS (7.0.10_64b) EN</t>
@@ -1293,16 +1119,6 @@
 Best regards.</t>
   </si>
   <si>
-    <t xml:space="preserve">Dear user,
-We can provide you the Visual studio XXXX license key by mail.
-Please provide us below informations:
-1) Have you Admin rights ?
-2) Are you in an Airbus site or offSite ?
-    If yes, Are you available to go the Airbus Techbar ?
-Thank you.
-</t>
-  </si>
-  <si>
     <t>Msg 6A</t>
   </si>
   <si>
@@ -1315,20 +1131,6 @@
   </si>
   <si>
     <t>Msg 6C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dear user,
-Please provide us below informations:
-The exact name/version of the Visual studio you use.
-Thank you.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dear user,
-You activated the Visual studio XXXX license key with your Admin rights.
-We close the Request.
-Best regards.
-</t>
   </si>
   <si>
     <t xml:space="preserve">Hello team,
@@ -1350,27 +1152,6 @@
     <t>Msg 6E</t>
   </si>
   <si>
-    <t xml:space="preserve">Dear user,
-We provided you the Visual stuidio XXXX license key by mail.
-You can now activate it with your Admin rights.
-Please keep us informed and not cancel the incident.
-Thank you.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IN REQUEST
-***************
-Dear user,
-You want to activate the "Visual studio XXXX" license key we sent you by mail.
-You have not Admin rights for that.
-We created a new incident INCxxxxx, so a technician will contact and help you remotely.
-Please provide your availabitity in this new incident when he will request it.
-Please keep us informed and not cancel incidents.
-Thank you.
-Best regards.
-</t>
-  </si>
-  <si>
     <t xml:space="preserve">IN INCIDENT
 **************
 Hello SCCM team,
@@ -1389,35 +1170,12 @@
     <t>Msg 6G</t>
   </si>
   <si>
-    <t xml:space="preserve">Dear user,
-You activated the Visual studio XXXX license key with the help of the Airbus Techbar.
-We close the Request.
-Best regards.
-</t>
-  </si>
-  <si>
-    <t>Dear user,
-You want to activate the "Visual studio XXXX" license key we sent you by mail.
-You have not Admin rights for that.
-We suggest you to go the Airbus Techbar, so a technician will help you.
-Please keep us informed and not cancel incidents.
-Thank you.
-Best regards.</t>
-  </si>
-  <si>
     <t xml:space="preserve">The user activated the Visual studio XXXX license key with the help of the Airbus techbar.
 Request closed.
 </t>
   </si>
   <si>
     <t>Msg 6H</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dear user,
-You activated the Visual studio XXXX license key with the help of the Airbus remote control team.
-We close the Request.
-Best regards.
-</t>
   </si>
   <si>
     <t xml:space="preserve">The user activated the Visual studio XXXX license key with the help of the Airbus remote control team.
@@ -1428,32 +1186,7 @@
     <t>Msg 2E</t>
   </si>
   <si>
-    <t xml:space="preserve">Dear user,
-According to our information, you have never had an access request approved for "Visual studio XXXX"
-Please provide us the below information:
-Where did you get: "Visua studio XXXX"
-Thank you.
-Best regards.
-</t>
-  </si>
-  <si>
     <t>Msg 2F</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dear user,
-You have not installed "Visual studio XXXX" according Airbus rules.
-An access request approved must be associated with its installation.
-Please:
-1) Uninstall you current "Visual studio XXXX" (optional)
-2) Go the Airbus Software catalogue
-   Link : https://airbus.service-now.com/esc?id=airbus_software_package_catalog
-3) Create a access request for "Visual studio XXXX" (see image attached)
-4) After30 trial days, you will have to create a request to get the perpetual license key and we will provide it by      mail.
-     Link : https://airbus.service-now.com/esc?id=sc_cat_item&amp;sys_id=fab02450eb09ea1861cbf264bad0cddc&amp;table=sc_cat_item&amp;searchTerm=request%20management
-We close the request.
-Thank you.
-Best regards.
-</t>
   </si>
   <si>
     <t>The user did not install "Visual studio XXXX" according Airbus rules.
@@ -1488,6 +1221,273 @@
 Please keep us informed and not cancel the incident.
 Thank you.
 Best regards.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hello user,
+You activated the Visual studio XXXX license key with the help of the Airbus remote control team.
+We close the Request.
+Best regards.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hello user,
+You activated the Visual studio XXXX license key with the help of the Airbus Techbar.
+We close the Request.
+Best regards.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hello user,
+Please provide us below informations:
+The exact name/version of the application concerned.
+Thank you.
+Best regards
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hello user,
+**COTS** is free in Pc Services AND Software center (centre logiciel).
+Please try to install/uninstall it from BOTH. 
+Please keep us informed and not cancel the incident.
+Thank you.
+Best regards.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hello user,
+Please provide us the below informations.
+1) Do you have Admin rights ?
+2) Are you in an Airbus Site or offSite ?
+Thank you.
+Best regards.
+</t>
+  </si>
+  <si>
+    <t>Hello user,
+You want to install (or uninstall) **COTS** but it failed.
+We suggest you to go the Tech Bar of your Airbus site, so a technician will help you to install it manually.
+Please keep us informed and not cancel the ticket.
+Thank you.
+Best regards.</t>
+  </si>
+  <si>
+    <t>Hello user,
+You want to install (or uninstall) **COTS** from Pc Services/Software center but it failed.
+(if copy : We created a new incident INCxxxxx, so) a technician will contact and help you remotely.
+Please provide your availabitity (if copy = in this new incident INCxxxxx) when requested.
+Please keep us informed and not cancel incidents.
+Thank you.
+Best regards.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hello user,
+**COTS** is Free in Pc Services/Software Center.
+Please provide us the below informations.
+1) Where did you download **COTS** from ? (optional)
+2) Did it work before ? (optional)
+3) A full screen-image of the error message. (optional)
+Thank you.
+Best regards.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hello user,
+You have not installed **COTS** according Airbus rules.
+Please:
+1) Uninstall your current **COTS**
+2) Install it freely by Pc Services/Software Center (see image attached).
+Please keep us informed and not cancel the incident.
+Thank you.
+Best regards.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hello user,
+According to our information, you have never had an access request approved for **COTS**.
+Please provide us the below information:
+Where did you get: **COTS**
+Thank you.
+Best regards.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hello user,
+You have not installed **COTS** according Airbus rules.
+An access request approved must be associated with its installation.
+Please:
+1) Uninstall you current "**COTS**.(optional)
+2) Go the Airbus Software catalogue
+   Link : https://airbus.service-now.com/esc?id=airbus_software_package_catalog
+3) Create a access request for **COTS** (see image attached)
+We will keep you informed..
+Thank you.
+Best regards.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hello user,
+According to our information, you have never had an access request approved for "Visual studio XXXX"
+Please provide us the below information:
+Where did you get: "Visua studio XXXX"
+Thank you.
+Best regards.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hello user,
+You have not installed "Visual studio XXXX" according Airbus rules.
+An access request approved must be associated with its installation.
+Please:
+1) Uninstall you current "Visual studio XXXX" (optional)
+2) Go the Airbus Software catalogue
+   Link : https://airbus.service-now.com/esc?id=airbus_software_package_catalog
+3) Create a access request for "Visual studio XXXX" (see image attached)
+4) After30 trial days, you will have to create a request to get the perpetual license key and we will provide it by      mail.
+     Link : https://airbus.service-now.com/esc?id=sc_cat_item&amp;sys_id=fab02450eb09ea1861cbf264bad0cddc&amp;table=sc_cat_item&amp;searchTerm=request%20management
+We close the request.
+Thank you.
+Best regards.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hello user,
+Please provide us the below informations.
+1) What is the exact name/version of **COTS** you use ? 
+2) Did it work before ? (optional)
+3) A full screen-image of the error message. (optional)
+Thank you.
+Best regards.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hello user,
+Please provide us the below informations.
+2) Did it work before ? (optional)
+3) A full screen-image of the error message. (optional)
+Thank you.
+Best regards.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hello user,
+To get ***COTS***, please:
+1) Go the Airbus Software catalogue
+   Link : https://airbus.service-now.com/esc?id=airbus_software_package_catalog
+2) Create a access request for **COTS** (see image attached)
+3) Once approved, you will can install it from Pc Services/Software center (Centre logiciel).
+We will keep you informed, please not cancel the incident.
+Thank you.
+Best regards.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hello user,
+Your access request was not approved because…...
+Thank you.
+Best regards.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hello user 
+Your RITMxxx access request has been approved.
+The technician handling this request will contact you to remotely install **COTS**.
+We have provided all the information to assist you.
+We will close the incident.
+If you have any further questions regarding the same issue, please do not reopen it.
+You can contact us via Google chat/email (cots_dsi.external@airbus.com).
+Do you agree?
+</t>
+  </si>
+  <si>
+    <t>Hello user,
+You want to install (or uninstall) **COTS** but it failed.
+(if copy : We created a new incident INCxxxxx, so) a technician will contact and help you remotely.
+Please provide your availabitity (if copy = in this new incident INCxxxxx) when requested.
+Please keep us informed and not cancel incidents.
+Thank you.
+Best regards.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hello user,
+We will help you to install **COTS** manually.
+1) ....
+2) ….
+Do you agree ?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hello user,
+You want to ...
+You have not Admin rights for that.
+We suggest you to go the Tech Bar of your Airbus site, so a technician will help you.
+Please keep us informed and not cancel incidents.
+Thank you.
+Best regards.
+</t>
+  </si>
+  <si>
+    <t>Hello user,
+You want to ...
+You have not Admin rights for that.
+(if copy : We created a new incident INCxxxxx, so) a technician will contact and help you remotely.
+Please provide your availabitity (if copy = in this new incident INCxxxxx) when requested.
+Please keep us informed and not cancel incidents.
+Thank you.
+Best regards.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hello user,
+Please provide us below informations:
+The exact name/version of the Visual studio you use.
+Thank you.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hello user,
+We provided you the Visual stuidio XXXX license key by mail.
+You can now activate it with your Admin rights.
+Please keep us informed and not cancel the incident.
+Thank you.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hello user,
+You activated the Visual studio XXXX license key with your Admin rights.
+We close the Request.
+Best regards.
+</t>
+  </si>
+  <si>
+    <t>Hello user,
+You want to activate the "Visual studio XXXX" license key we sent you by mail.
+You have not Admin rights for that.
+We suggest you to go the Airbus Techbar, so a technician will help you.
+Please keep us informed and not cancel incidents.
+Thank you.
+Best regards.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IN REQUEST
+***************
+Hello user,
+You want to activate the "Visual studio XXXX" license key we sent you by mail.
+You have not Admin rights for that.
+We created a new incident INCxxxxx, so a technician will contact and help you remotely.
+Please provide your availabitity in this new incident when he will request it.
+Please keep us informed and not cancel incidents.
+Thank you.
+Best regards.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hello user,
+We can provide you the Visual studio XXXX license key by mail.
+Please provide us below informations:
+1) Do you have Admin rights ?
+2) Are you in an Airbus site or offSite ?
+    If yes, Are you available to go to the Airbus Techbar ?
+Thank you.
 </t>
   </si>
 </sst>
@@ -2448,7 +2448,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="181">
+  <cellXfs count="180">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2904,20 +2904,8 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -2949,11 +2937,20 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3341,18 +3338,18 @@
       <c r="F1" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="179" t="s">
+      <c r="G1" s="178" t="s">
         <v>168</v>
       </c>
-      <c r="H1" s="180"/>
-      <c r="I1" s="179" t="s">
+      <c r="H1" s="179"/>
+      <c r="I1" s="178" t="s">
         <v>169</v>
       </c>
-      <c r="J1" s="180"/>
-      <c r="K1" s="179" t="s">
+      <c r="J1" s="179"/>
+      <c r="K1" s="178" t="s">
         <v>170</v>
       </c>
-      <c r="L1" s="180"/>
+      <c r="L1" s="179"/>
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
@@ -3942,10 +3939,10 @@
         <v>185</v>
       </c>
       <c r="K13" s="72" t="s">
-        <v>267</v>
+        <v>249</v>
       </c>
       <c r="L13" s="73" t="s">
-        <v>265</v>
+        <v>247</v>
       </c>
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
@@ -3993,10 +3990,10 @@
         <v>185</v>
       </c>
       <c r="K14" s="72" t="s">
-        <v>267</v>
+        <v>249</v>
       </c>
       <c r="L14" s="73" t="s">
-        <v>265</v>
+        <v>247</v>
       </c>
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
@@ -4150,7 +4147,7 @@
       <c r="D18" s="39" t="s">
         <v>46</v>
       </c>
-      <c r="E18" s="167" t="s">
+      <c r="E18" s="163" t="s">
         <v>47</v>
       </c>
       <c r="F18" s="124" t="s">
@@ -4671,7 +4668,7 @@
         <v>8</v>
       </c>
       <c r="D29" s="34" t="s">
-        <v>264</v>
+        <v>246</v>
       </c>
       <c r="E29" s="97" t="s">
         <v>76</v>
@@ -5648,10 +5645,10 @@
       <c r="A49" s="36" t="s">
         <v>149</v>
       </c>
-      <c r="B49" s="176" t="s">
+      <c r="B49" s="175" t="s">
         <v>150</v>
       </c>
-      <c r="C49" s="176" t="s">
+      <c r="C49" s="175" t="s">
         <v>8</v>
       </c>
       <c r="D49" s="46" t="s">
@@ -5683,8 +5680,8 @@
     </row>
     <row r="50" spans="1:27" ht="16.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="77"/>
-      <c r="B50" s="177"/>
-      <c r="C50" s="178"/>
+      <c r="B50" s="176"/>
+      <c r="C50" s="177"/>
       <c r="D50" s="33" t="s">
         <v>152</v>
       </c>
@@ -33013,7 +33010,7 @@
       <c r="A22" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="B22" s="169" t="s">
+      <c r="B22" s="165" t="s">
         <v>146</v>
       </c>
       <c r="C22" s="1"/>
@@ -33042,10 +33039,10 @@
       <c r="Z22" s="1"/>
     </row>
     <row r="23" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="168" t="s">
+      <c r="A23" s="164" t="s">
         <v>120</v>
       </c>
-      <c r="B23" s="170" t="s">
+      <c r="B23" s="166" t="s">
         <v>147</v>
       </c>
       <c r="C23" s="9"/>
@@ -33074,10 +33071,10 @@
       <c r="Z23" s="1"/>
     </row>
     <row r="24" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="171" t="s">
+      <c r="A24" s="167" t="s">
         <v>184</v>
       </c>
-      <c r="B24" s="170"/>
+      <c r="B24" s="166"/>
       <c r="C24" s="9"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
@@ -33107,7 +33104,7 @@
       <c r="A25" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="B25" s="172" t="s">
+      <c r="B25" s="168" t="s">
         <v>217</v>
       </c>
       <c r="C25" s="1"/>
@@ -33204,7 +33201,7 @@
         <v>190</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>270</v>
+        <v>252</v>
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -33364,7 +33361,7 @@
         <v>193</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -33489,10 +33486,10 @@
     </row>
     <row r="37" spans="1:26" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="7" t="s">
-        <v>265</v>
+        <v>247</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>266</v>
+        <v>248</v>
       </c>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
@@ -33682,7 +33679,7 @@
         <v>178</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>271</v>
+        <v>253</v>
       </c>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
@@ -33906,7 +33903,7 @@
         <v>203</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>269</v>
+        <v>251</v>
       </c>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
@@ -33935,10 +33932,10 @@
     </row>
     <row r="51" spans="1:26" ht="115.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="6" t="s">
-        <v>267</v>
+        <v>249</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>268</v>
+        <v>250</v>
       </c>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
@@ -61022,8 +61019,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31D4665B-D115-4825-B0F1-BB5C2DC81169}">
   <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -61046,297 +61043,306 @@
       </c>
     </row>
     <row r="2" spans="1:3" ht="129" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="162" t="s">
+      <c r="A2" s="159" t="s">
         <v>221</v>
       </c>
-      <c r="B2" s="159" t="s">
-        <v>225</v>
-      </c>
-      <c r="C2" s="161"/>
+      <c r="B2" s="171" t="s">
+        <v>276</v>
+      </c>
+      <c r="C2" s="155"/>
     </row>
     <row r="3" spans="1:3" ht="157.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="158" t="s">
         <v>222</v>
       </c>
-      <c r="B3" s="159" t="s">
-        <v>227</v>
-      </c>
-      <c r="C3" s="161"/>
+      <c r="B3" s="171" t="s">
+        <v>277</v>
+      </c>
+      <c r="C3" s="155"/>
     </row>
     <row r="4" spans="1:3" ht="143.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="158" t="s">
         <v>223</v>
       </c>
-      <c r="B4" s="159" t="s">
-        <v>234</v>
-      </c>
-      <c r="C4" s="161"/>
+      <c r="B4" s="171" t="s">
+        <v>278</v>
+      </c>
+      <c r="C4" s="155"/>
     </row>
     <row r="5" spans="1:3" ht="257.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="158" t="s">
         <v>224</v>
       </c>
-      <c r="B5" s="159" t="s">
-        <v>253</v>
+      <c r="B5" s="171" t="s">
+        <v>279</v>
       </c>
       <c r="C5" s="160" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="228" x14ac:dyDescent="0.2">
       <c r="A6" s="157" t="s">
-        <v>228</v>
-      </c>
-      <c r="B6" s="163" t="s">
-        <v>226</v>
-      </c>
-      <c r="C6" s="163" t="s">
-        <v>236</v>
+        <v>225</v>
+      </c>
+      <c r="B6" s="172" t="s">
+        <v>280</v>
+      </c>
+      <c r="C6" s="160" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="185.25" x14ac:dyDescent="0.2">
       <c r="A7" s="157" t="s">
-        <v>229</v>
-      </c>
-      <c r="B7" s="164" t="s">
-        <v>232</v>
+        <v>226</v>
+      </c>
+      <c r="B7" s="173" t="s">
+        <v>281</v>
       </c>
       <c r="C7" s="155"/>
     </row>
     <row r="8" spans="1:3" ht="199.5" x14ac:dyDescent="0.2">
       <c r="A8" s="157" t="s">
-        <v>230</v>
-      </c>
-      <c r="B8" s="164" t="s">
-        <v>233</v>
+        <v>227</v>
+      </c>
+      <c r="B8" s="173" t="s">
+        <v>282</v>
       </c>
       <c r="C8" s="155"/>
     </row>
     <row r="9" spans="1:3" ht="156.75" x14ac:dyDescent="0.2">
       <c r="A9" s="157" t="s">
-        <v>231</v>
-      </c>
-      <c r="B9" s="164" t="s">
-        <v>238</v>
+        <v>228</v>
+      </c>
+      <c r="B9" s="173" t="s">
+        <v>283</v>
       </c>
       <c r="C9" s="155"/>
     </row>
     <row r="10" spans="1:3" ht="270.75" x14ac:dyDescent="0.2">
       <c r="A10" s="157" t="s">
-        <v>239</v>
-      </c>
-      <c r="B10" s="165" t="s">
-        <v>240</v>
-      </c>
+        <v>232</v>
+      </c>
+      <c r="B10" s="161" t="s">
+        <v>284</v>
+      </c>
+      <c r="C10" s="155"/>
     </row>
     <row r="11" spans="1:3" ht="156.75" x14ac:dyDescent="0.2">
       <c r="A11" s="157" t="s">
-        <v>293</v>
-      </c>
-      <c r="B11" s="164" t="s">
-        <v>294</v>
-      </c>
+        <v>267</v>
+      </c>
+      <c r="B11" s="173" t="s">
+        <v>285</v>
+      </c>
+      <c r="C11" s="155"/>
     </row>
     <row r="12" spans="1:3" ht="356.25" x14ac:dyDescent="0.2">
       <c r="A12" s="157" t="s">
-        <v>295</v>
-      </c>
-      <c r="B12" s="165" t="s">
-        <v>296</v>
-      </c>
-      <c r="C12" s="165" t="s">
-        <v>297</v>
+        <v>268</v>
+      </c>
+      <c r="B12" s="161" t="s">
+        <v>286</v>
+      </c>
+      <c r="C12" s="160" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="156.75" x14ac:dyDescent="0.2">
       <c r="A13" s="157" t="s">
-        <v>241</v>
-      </c>
-      <c r="B13" s="164" t="s">
-        <v>242</v>
-      </c>
+        <v>233</v>
+      </c>
+      <c r="B13" s="173" t="s">
+        <v>287</v>
+      </c>
+      <c r="C13" s="155"/>
     </row>
     <row r="14" spans="1:3" ht="142.5" x14ac:dyDescent="0.2">
       <c r="A14" s="157" t="s">
-        <v>243</v>
-      </c>
-      <c r="B14" s="164" t="s">
-        <v>244</v>
-      </c>
+        <v>234</v>
+      </c>
+      <c r="B14" s="173" t="s">
+        <v>288</v>
+      </c>
+      <c r="C14" s="155"/>
     </row>
     <row r="15" spans="1:3" ht="228" x14ac:dyDescent="0.2">
       <c r="A15" s="157" t="s">
-        <v>245</v>
-      </c>
-      <c r="B15" s="164" t="s">
-        <v>246</v>
-      </c>
+        <v>235</v>
+      </c>
+      <c r="B15" s="173" t="s">
+        <v>289</v>
+      </c>
+      <c r="C15" s="155"/>
     </row>
     <row r="16" spans="1:3" ht="99.75" x14ac:dyDescent="0.2">
-      <c r="A16" s="175" t="s">
-        <v>247</v>
-      </c>
-      <c r="B16" s="164" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="171.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="175" t="s">
-        <v>249</v>
-      </c>
-      <c r="B17" s="164" t="s">
-        <v>250</v>
-      </c>
+      <c r="A16" s="170" t="s">
+        <v>236</v>
+      </c>
+      <c r="B16" s="173" t="s">
+        <v>290</v>
+      </c>
+      <c r="C16" s="155"/>
+    </row>
+    <row r="17" spans="1:7" ht="171" x14ac:dyDescent="0.2">
+      <c r="A17" s="170" t="s">
+        <v>237</v>
+      </c>
+      <c r="B17" s="173" t="s">
+        <v>291</v>
+      </c>
+      <c r="C17" s="155"/>
     </row>
     <row r="18" spans="1:7" ht="257.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="173" t="s">
-        <v>251</v>
+      <c r="A18" s="169" t="s">
+        <v>238</v>
       </c>
       <c r="B18" s="174" t="s">
-        <v>253</v>
+        <v>279</v>
       </c>
       <c r="C18" s="160" t="s">
-        <v>256</v>
-      </c>
-      <c r="G18" s="166"/>
+        <v>241</v>
+      </c>
+      <c r="G18" s="162"/>
     </row>
     <row r="19" spans="1:7" ht="228" x14ac:dyDescent="0.2">
       <c r="A19" s="157" t="s">
-        <v>252</v>
-      </c>
-      <c r="B19" s="163" t="s">
+        <v>239</v>
+      </c>
+      <c r="B19" s="172" t="s">
+        <v>292</v>
+      </c>
+      <c r="C19" s="160" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="114" x14ac:dyDescent="0.2">
+      <c r="A20" s="170" t="s">
+        <v>240</v>
+      </c>
+      <c r="B20" s="173" t="s">
+        <v>293</v>
+      </c>
+      <c r="C20" s="155"/>
+    </row>
+    <row r="21" spans="1:7" ht="228" x14ac:dyDescent="0.2">
+      <c r="A21" s="170" t="s">
+        <v>243</v>
+      </c>
+      <c r="B21" s="173" t="s">
+        <v>294</v>
+      </c>
+      <c r="C21" s="160" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="228.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="170" t="s">
+        <v>244</v>
+      </c>
+      <c r="B22" s="173" t="s">
+        <v>295</v>
+      </c>
+      <c r="C22" s="160" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="114.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="159" t="s">
+        <v>254</v>
+      </c>
+      <c r="B23" s="171" t="s">
+        <v>296</v>
+      </c>
+      <c r="C23" s="155"/>
+    </row>
+    <row r="24" spans="1:7" ht="156.75" x14ac:dyDescent="0.2">
+      <c r="A24" s="170" t="s">
+        <v>255</v>
+      </c>
+      <c r="B24" s="173" t="s">
+        <v>301</v>
+      </c>
+      <c r="C24" s="155"/>
+    </row>
+    <row r="25" spans="1:7" ht="114" x14ac:dyDescent="0.2">
+      <c r="A25" s="170" t="s">
         <v>257</v>
       </c>
-      <c r="C19" s="163" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="114" x14ac:dyDescent="0.2">
-      <c r="A20" s="175" t="s">
-        <v>254</v>
-      </c>
-      <c r="B20" s="164" t="s">
-        <v>255</v>
-      </c>
-      <c r="C20" s="155"/>
-    </row>
-    <row r="21" spans="1:7" ht="228" x14ac:dyDescent="0.2">
-      <c r="A21" s="175" t="s">
+      <c r="B25" s="173" t="s">
+        <v>297</v>
+      </c>
+      <c r="C25" s="155"/>
+    </row>
+    <row r="26" spans="1:7" ht="99.75" x14ac:dyDescent="0.2">
+      <c r="A26" s="170" t="s">
         <v>259</v>
       </c>
-      <c r="B21" s="164" t="s">
-        <v>261</v>
-      </c>
-      <c r="C21" s="164" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="228.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="175" t="s">
-        <v>260</v>
-      </c>
-      <c r="B22" s="164" t="s">
-        <v>263</v>
-      </c>
-      <c r="C22" s="164" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="114.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="162" t="s">
-        <v>273</v>
-      </c>
-      <c r="B23" s="159" t="s">
-        <v>277</v>
-      </c>
-      <c r="C23" s="161"/>
-    </row>
-    <row r="24" spans="1:7" ht="156.75" x14ac:dyDescent="0.2">
-      <c r="A24" s="175" t="s">
-        <v>274</v>
-      </c>
-      <c r="B24" s="164" t="s">
-        <v>272</v>
-      </c>
-      <c r="C24" s="155"/>
-    </row>
-    <row r="25" spans="1:7" ht="114" x14ac:dyDescent="0.2">
-      <c r="A25" s="175" t="s">
-        <v>276</v>
-      </c>
-      <c r="B25" s="164" t="s">
-        <v>282</v>
-      </c>
-      <c r="C25" s="155"/>
-    </row>
-    <row r="26" spans="1:7" ht="99.75" x14ac:dyDescent="0.2">
-      <c r="A26" s="175" t="s">
-        <v>280</v>
-      </c>
-      <c r="B26" s="164" t="s">
-        <v>278</v>
-      </c>
-      <c r="C26" s="164" t="s">
-        <v>275</v>
+      <c r="B26" s="173" t="s">
+        <v>298</v>
+      </c>
+      <c r="C26" s="160" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="156.75" x14ac:dyDescent="0.2">
       <c r="A27" s="153" t="s">
-        <v>281</v>
-      </c>
-      <c r="B27" s="165" t="s">
-        <v>288</v>
-      </c>
-      <c r="C27" s="165"/>
+        <v>260</v>
+      </c>
+      <c r="B27" s="161" t="s">
+        <v>299</v>
+      </c>
+      <c r="C27" s="160"/>
     </row>
     <row r="28" spans="1:7" ht="228" x14ac:dyDescent="0.2">
       <c r="A28" s="153" t="s">
-        <v>285</v>
-      </c>
-      <c r="B28" s="165" t="s">
-        <v>283</v>
-      </c>
-      <c r="C28" s="165" t="s">
-        <v>284</v>
+        <v>262</v>
+      </c>
+      <c r="B28" s="161" t="s">
+        <v>300</v>
+      </c>
+      <c r="C28" s="160" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="99.75" x14ac:dyDescent="0.2">
-      <c r="A29" s="175" t="s">
-        <v>286</v>
-      </c>
-      <c r="B29" s="164" t="s">
-        <v>287</v>
-      </c>
-      <c r="C29" s="164" t="s">
-        <v>289</v>
+      <c r="A29" s="170" t="s">
+        <v>263</v>
+      </c>
+      <c r="B29" s="173" t="s">
+        <v>275</v>
+      </c>
+      <c r="C29" s="160" t="s">
+        <v>264</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="99.75" x14ac:dyDescent="0.2">
-      <c r="A30" s="175" t="s">
-        <v>290</v>
-      </c>
-      <c r="B30" s="164" t="s">
-        <v>291</v>
-      </c>
-      <c r="C30" s="164" t="s">
-        <v>292</v>
+      <c r="A30" s="170" t="s">
+        <v>265</v>
+      </c>
+      <c r="B30" s="173" t="s">
+        <v>274</v>
+      </c>
+      <c r="C30" s="160" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="199.5" x14ac:dyDescent="0.2">
-      <c r="A31" s="153" t="s">
-        <v>298</v>
-      </c>
-      <c r="B31" s="165" t="s">
-        <v>300</v>
-      </c>
+      <c r="A31" s="170" t="s">
+        <v>270</v>
+      </c>
+      <c r="B31" s="173" t="s">
+        <v>272</v>
+      </c>
+      <c r="C31" s="155"/>
     </row>
     <row r="32" spans="1:7" ht="199.5" x14ac:dyDescent="0.2">
-      <c r="A32" s="153" t="s">
-        <v>299</v>
-      </c>
-      <c r="B32" s="165" t="s">
-        <v>301</v>
-      </c>
+      <c r="A32" s="170" t="s">
+        <v>271</v>
+      </c>
+      <c r="B32" s="173" t="s">
+        <v>273</v>
+      </c>
+      <c r="C32" s="155"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/CotsList.xlsx
+++ b/data/CotsList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rserghine\Projects React\DsiCenter_Excel\public\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85F555F6-5232-4AF0-8189-ADCA2DF61994}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0DA921A-0C13-454F-82BF-310A2E92AFEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{67F2D85F-F75B-4B61-9855-239B084B2F7E}"/>
   </bookViews>
@@ -1459,11 +1459,21 @@
 </t>
   </si>
   <si>
+    <t xml:space="preserve">Hello user,
+We can provide you the Visual studio XXXX license key by mail.
+Please provide us below informations:
+1) Do you have Admin rights ?
+2) Are you in an Airbus site or offSite ?
+    If yes, Are you available to go to the Airbus Techbar ?
+Thank you.
+</t>
+  </si>
+  <si>
     <t>Hello user,
 You want to activate the "Visual studio XXXX" license key we sent you by mail.
 You have not Admin rights for that.
 We suggest you to go the Airbus Techbar, so a technician will help you.
-Please keep us informed and not cancel incidents.
+Please keep us informed and not cancel the request.
 Thank you.
 Best regards.</t>
   </si>
@@ -1475,19 +1485,9 @@
 You have not Admin rights for that.
 We created a new incident INCxxxxx, so a technician will contact and help you remotely.
 Please provide your availabitity in this new incident when he will request it.
-Please keep us informed and not cancel incidents.
+Please keep us informed and not cancel the request.
 Thank you.
 Best regards.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hello user,
-We can provide you the Visual studio XXXX license key by mail.
-Please provide us below informations:
-1) Do you have Admin rights ?
-2) Are you in an Airbus site or offSite ?
-    If yes, Are you available to go to the Airbus Techbar ?
-Thank you.
 </t>
   </si>
 </sst>
@@ -61019,8 +61019,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31D4665B-D115-4825-B0F1-BB5C2DC81169}">
   <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -61260,7 +61260,7 @@
         <v>255</v>
       </c>
       <c r="B24" s="173" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C24" s="155"/>
     </row>
@@ -61289,7 +61289,7 @@
         <v>260</v>
       </c>
       <c r="B27" s="161" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C27" s="160"/>
     </row>
@@ -61298,7 +61298,7 @@
         <v>262</v>
       </c>
       <c r="B28" s="161" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C28" s="160" t="s">
         <v>261</v>

--- a/data/CotsList.xlsx
+++ b/data/CotsList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rserghine\Projects React\DsiCenter_Excel\public\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0DA921A-0C13-454F-82BF-310A2E92AFEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC8E0EEE-91A2-4C9E-9C79-6B9F36726E15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{67F2D85F-F75B-4B61-9855-239B084B2F7E}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{67F2D85F-F75B-4B61-9855-239B084B2F7E}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -858,27 +858,6 @@
 We suggested him to create a new request for another version.</t>
   </si>
   <si>
-    <t>The user has been added to the access group of "SOFTWARE".
-To install the application: Restart the PC, Wait 2 hours and Go to Pc Services or Sofware Center.</t>
-  </si>
-  <si>
-    <t>The user is already in the access group of "SOFTWARE".
-To install the application: Restart the PC and Go to Pc Services or Sofware Center.</t>
-  </si>
-  <si>
-    <t>The user is already in the access group of "SOFTWARE".
-To install the application: Restart the PC and Go to Pc Services or Sofware Center.
-OR
-We informed the user that there is no licence available for "SOFTWARE" for his location (...).</t>
-  </si>
-  <si>
-    <t>The user is already in the access group of "SOFTWARE". 
-To install the application: Restart the PC and Go to Pc Services or Sofware Center.
-OR
-We have to close this request due to the missing response of the license server team and the expired deadline.
-If the user wants "SOFTWARE", we suggest him to create a new request for it.</t>
-  </si>
-  <si>
     <t>Msg 1A</t>
   </si>
   <si>
@@ -1489,6 +1468,27 @@
 Thank you.
 Best regards.
 </t>
+  </si>
+  <si>
+    <t>The user has been added to the access group of "SOFTWARE".
+To install the application: Restart the PC, Wait 2 hours and Go to Pc Services or  Center.</t>
+  </si>
+  <si>
+    <t>The user is already in the access group of "SOFTWARE".
+To install the application: Restart the PC and Go to Pc Services or  Center.</t>
+  </si>
+  <si>
+    <t>The user is already in the access group of "SOFTWARE".
+To install the application: Restart the PC and Go to Pc Services or  Center.
+OR
+We informed the user that there is no licence available for "SOFTWARE" for his location (...).</t>
+  </si>
+  <si>
+    <t>The user is already in the access group of "SOFTWARE". 
+To install the application: Restart the PC and Go to Pc Services or  Center.
+OR
+We have to close this request due to the missing response of the license server team and the expired deadline.
+If the user wants "SOFTWARE", we suggest him to create a new request for it.</t>
   </si>
 </sst>
 </file>
@@ -3939,10 +3939,10 @@
         <v>185</v>
       </c>
       <c r="K13" s="72" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="L13" s="73" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
@@ -3990,10 +3990,10 @@
         <v>185</v>
       </c>
       <c r="K14" s="72" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="L14" s="73" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
@@ -4668,7 +4668,7 @@
         <v>8</v>
       </c>
       <c r="D29" s="34" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="E29" s="97" t="s">
         <v>76</v>
@@ -32324,8 +32324,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CF5CE56-EC25-4FB7-A62C-2823D6365594}">
   <dimension ref="A1:Z1017"/>
   <sheetViews>
-    <sheetView topLeftCell="A48" workbookViewId="0">
-      <selection activeCell="B50" sqref="B50"/>
+    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
+      <selection activeCell="E49" sqref="E49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -33105,7 +33105,7 @@
         <v>185</v>
       </c>
       <c r="B25" s="168" t="s">
-        <v>217</v>
+        <v>298</v>
       </c>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -33137,7 +33137,7 @@
         <v>187</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>218</v>
+        <v>299</v>
       </c>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -33169,7 +33169,7 @@
         <v>186</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>219</v>
+        <v>300</v>
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -33201,7 +33201,7 @@
         <v>190</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -33361,7 +33361,7 @@
         <v>193</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -33393,7 +33393,7 @@
         <v>194</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>220</v>
+        <v>301</v>
       </c>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
@@ -33486,10 +33486,10 @@
     </row>
     <row r="37" spans="1:26" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="7" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
@@ -33679,7 +33679,7 @@
         <v>178</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
@@ -33903,7 +33903,7 @@
         <v>203</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
@@ -33932,10 +33932,10 @@
     </row>
     <row r="51" spans="1:26" ht="115.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="6" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
@@ -61019,7 +61019,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31D4665B-D115-4825-B0F1-BB5C2DC81169}">
   <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+    <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
@@ -61044,303 +61044,303 @@
     </row>
     <row r="2" spans="1:3" ht="129" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="159" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="B2" s="171" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="C2" s="155"/>
     </row>
     <row r="3" spans="1:3" ht="157.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="158" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="B3" s="171" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="C3" s="155"/>
     </row>
     <row r="4" spans="1:3" ht="143.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="158" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="B4" s="171" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="C4" s="155"/>
     </row>
     <row r="5" spans="1:3" ht="257.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="158" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="B5" s="171" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="C5" s="160" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="228" x14ac:dyDescent="0.2">
       <c r="A6" s="157" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="B6" s="172" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="C6" s="160" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="185.25" x14ac:dyDescent="0.2">
       <c r="A7" s="157" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="B7" s="173" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="C7" s="155"/>
     </row>
     <row r="8" spans="1:3" ht="199.5" x14ac:dyDescent="0.2">
       <c r="A8" s="157" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="B8" s="173" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="C8" s="155"/>
     </row>
     <row r="9" spans="1:3" ht="156.75" x14ac:dyDescent="0.2">
       <c r="A9" s="157" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="B9" s="173" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="C9" s="155"/>
     </row>
     <row r="10" spans="1:3" ht="270.75" x14ac:dyDescent="0.2">
       <c r="A10" s="157" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="B10" s="161" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="C10" s="155"/>
     </row>
     <row r="11" spans="1:3" ht="156.75" x14ac:dyDescent="0.2">
       <c r="A11" s="157" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="B11" s="173" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="C11" s="155"/>
     </row>
     <row r="12" spans="1:3" ht="356.25" x14ac:dyDescent="0.2">
       <c r="A12" s="157" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="B12" s="161" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="C12" s="160" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="156.75" x14ac:dyDescent="0.2">
       <c r="A13" s="157" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="B13" s="173" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="C13" s="155"/>
     </row>
     <row r="14" spans="1:3" ht="142.5" x14ac:dyDescent="0.2">
       <c r="A14" s="157" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="B14" s="173" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="C14" s="155"/>
     </row>
     <row r="15" spans="1:3" ht="228" x14ac:dyDescent="0.2">
       <c r="A15" s="157" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="B15" s="173" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="C15" s="155"/>
     </row>
     <row r="16" spans="1:3" ht="99.75" x14ac:dyDescent="0.2">
       <c r="A16" s="170" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="B16" s="173" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="C16" s="155"/>
     </row>
     <row r="17" spans="1:7" ht="171" x14ac:dyDescent="0.2">
       <c r="A17" s="170" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="B17" s="173" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="C17" s="155"/>
     </row>
     <row r="18" spans="1:7" ht="257.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="169" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="B18" s="174" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="C18" s="160" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="G18" s="162"/>
     </row>
     <row r="19" spans="1:7" ht="228" x14ac:dyDescent="0.2">
       <c r="A19" s="157" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="B19" s="172" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="C19" s="160" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="114" x14ac:dyDescent="0.2">
       <c r="A20" s="170" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="B20" s="173" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="C20" s="155"/>
     </row>
     <row r="21" spans="1:7" ht="228" x14ac:dyDescent="0.2">
       <c r="A21" s="170" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="B21" s="173" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="C21" s="160" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="228.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="170" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="B22" s="173" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="C22" s="160" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="114.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="159" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="B23" s="171" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="C23" s="155"/>
     </row>
     <row r="24" spans="1:7" ht="156.75" x14ac:dyDescent="0.2">
       <c r="A24" s="170" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="B24" s="173" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="C24" s="155"/>
     </row>
     <row r="25" spans="1:7" ht="114" x14ac:dyDescent="0.2">
       <c r="A25" s="170" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="B25" s="173" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="C25" s="155"/>
     </row>
     <row r="26" spans="1:7" ht="99.75" x14ac:dyDescent="0.2">
       <c r="A26" s="170" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="B26" s="173" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="C26" s="160" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="156.75" x14ac:dyDescent="0.2">
       <c r="A27" s="153" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="B27" s="161" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="C27" s="160"/>
     </row>
     <row r="28" spans="1:7" ht="228" x14ac:dyDescent="0.2">
       <c r="A28" s="153" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="B28" s="161" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="C28" s="160" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="99.75" x14ac:dyDescent="0.2">
       <c r="A29" s="170" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="B29" s="173" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="C29" s="160" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="99.75" x14ac:dyDescent="0.2">
       <c r="A30" s="170" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="B30" s="173" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="C30" s="160" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="199.5" x14ac:dyDescent="0.2">
       <c r="A31" s="170" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="B31" s="173" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="C31" s="155"/>
     </row>
     <row r="32" spans="1:7" ht="199.5" x14ac:dyDescent="0.2">
       <c r="A32" s="170" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="B32" s="173" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="C32" s="155"/>
     </row>

--- a/data/CotsList.xlsx
+++ b/data/CotsList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rserghine\Projects React\DsiCenter_Excel\public\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC8E0EEE-91A2-4C9E-9C79-6B9F36726E15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B51DFFF0-F7FB-403B-BF1C-59D03B15B637}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{67F2D85F-F75B-4B61-9855-239B084B2F7E}"/>
   </bookViews>
@@ -1471,21 +1471,21 @@
   </si>
   <si>
     <t>The user has been added to the access group of "SOFTWARE".
-To install the application: Restart the PC, Wait 2 hours and Go to Pc Services or  Center.</t>
+To install the application: Restart the PC, Wait 2 hours and Go to Pc Services or  Software Center.</t>
   </si>
   <si>
     <t>The user is already in the access group of "SOFTWARE".
-To install the application: Restart the PC and Go to Pc Services or  Center.</t>
+To install the application: Restart the PC and Go to Pc Services or  Software Center.</t>
   </si>
   <si>
     <t>The user is already in the access group of "SOFTWARE".
-To install the application: Restart the PC and Go to Pc Services or  Center.
+To install the application: Restart the PC and Go to Pc Services or  Software Center.
 OR
 We informed the user that there is no licence available for "SOFTWARE" for his location (...).</t>
   </si>
   <si>
     <t>The user is already in the access group of "SOFTWARE". 
-To install the application: Restart the PC and Go to Pc Services or  Center.
+To install the application: Restart the PC and Go to Pc Services or  Software Center.
 OR
 We have to close this request due to the missing response of the license server team and the expired deadline.
 If the user wants "SOFTWARE", we suggest him to create a new request for it.</t>
@@ -32325,7 +32325,7 @@
   <dimension ref="A1:Z1017"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
-      <selection activeCell="E49" sqref="E49"/>
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/data/CotsList.xlsx
+++ b/data/CotsList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rserghine\Projects React\DsiCenter_Excel\public\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B25C631E-D66C-45E8-9F0B-6845A0A09606}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E162145C-0B52-495C-9B79-3F5AFE4947BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{67F2D85F-F75B-4B61-9855-239B084B2F7E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{67F2D85F-F75B-4B61-9855-239B084B2F7E}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -1426,16 +1426,6 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Hello user,
-We can provide you the Visual studio XXXX license key by mail.
-Please provide us below informations:
-1) Do you have Admin rights ?
-2) Are you in an Airbus site or offSite ?
-    If yes, Are you available to go to the Airbus Techbar ?
-Thank you.
-</t>
-  </si>
-  <si>
     <t>Hello user,
 You want to activate the "Visual studio XXXX" license key we sent you by mail.
 You have not Admin rights for that.
@@ -1486,6 +1476,16 @@
 We sent you a mail for additional informations.
 Awaiting the response.
 Best regards.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hello user,
+We can provide you the Visual studio XXXX license key by mail.
+Please provide us below informations:
+1) Do you have Admin rights ?
+2) If not, are you in an Airbus site or offSite ?
+    If Airbus site, are you available to go to the Airbus Techbar ?
+Thank you.
+</t>
   </si>
 </sst>
 </file>
@@ -5214,7 +5214,7 @@
         <v>183</v>
       </c>
       <c r="H40" s="71" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="I40" s="70" t="s">
         <v>173</v>
@@ -32321,7 +32321,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CF5CE56-EC25-4FB7-A62C-2823D6365594}">
   <dimension ref="A1:Z1016"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
+    <sheetView topLeftCell="A47" workbookViewId="0">
       <selection activeCell="B49" sqref="B49"/>
     </sheetView>
   </sheetViews>
@@ -33102,7 +33102,7 @@
         <v>185</v>
       </c>
       <c r="B25" s="168" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -33134,7 +33134,7 @@
         <v>187</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -33166,7 +33166,7 @@
         <v>186</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -33390,7 +33390,7 @@
         <v>194</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
@@ -33836,7 +33836,7 @@
         <v>183</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
@@ -60984,8 +60984,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31D4665B-D115-4825-B0F1-BB5C2DC81169}">
   <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -61225,7 +61225,7 @@
         <v>248</v>
       </c>
       <c r="B24" s="173" t="s">
-        <v>292</v>
+        <v>300</v>
       </c>
       <c r="C24" s="155"/>
     </row>
@@ -61254,7 +61254,7 @@
         <v>253</v>
       </c>
       <c r="B27" s="161" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C27" s="160"/>
     </row>
@@ -61263,7 +61263,7 @@
         <v>255</v>
       </c>
       <c r="B28" s="161" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C28" s="160" t="s">
         <v>254</v>

--- a/data/CotsList.xlsx
+++ b/data/CotsList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rserghine\Projects React\DsiCenter_Excel\public\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E162145C-0B52-495C-9B79-3F5AFE4947BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ED254C4-1229-44F8-BDB8-71078DA7DEC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{67F2D85F-F75B-4B61-9855-239B084B2F7E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{67F2D85F-F75B-4B61-9855-239B084B2F7E}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="300">
   <si>
     <t>APPLICATION</t>
   </si>
@@ -1467,9 +1467,6 @@
 OR
 We have to close this request due to the missing response of the license server team and the expired deadline.
 If the user wants "SOFTWARE", we suggest him to create a new request for it.</t>
-  </si>
-  <si>
-    <t>WN A4</t>
   </si>
   <si>
     <t>Dear user,
@@ -3296,8 +3293,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8204D41-40C1-4E72-957A-75C3D992A16F}">
   <dimension ref="A1:AA965"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H47" sqref="H47"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="H44" sqref="H44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5214,7 +5211,7 @@
         <v>183</v>
       </c>
       <c r="H40" s="71" t="s">
-        <v>298</v>
+        <v>190</v>
       </c>
       <c r="I40" s="70" t="s">
         <v>173</v>
@@ -32321,8 +32318,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CF5CE56-EC25-4FB7-A62C-2823D6365594}">
   <dimension ref="A1:Z1016"/>
   <sheetViews>
-    <sheetView topLeftCell="A47" workbookViewId="0">
-      <selection activeCell="B49" sqref="B49"/>
+    <sheetView topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -33836,7 +33833,7 @@
         <v>183</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
@@ -60984,7 +60981,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31D4665B-D115-4825-B0F1-BB5C2DC81169}">
   <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+    <sheetView topLeftCell="A26" workbookViewId="0">
       <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
@@ -61225,7 +61222,7 @@
         <v>248</v>
       </c>
       <c r="B24" s="173" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C24" s="155"/>
     </row>

--- a/data/CotsList.xlsx
+++ b/data/CotsList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rserghine\Projects React\DsiCenter_Excel\public\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ED254C4-1229-44F8-BDB8-71078DA7DEC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30FA6552-D593-4C1F-AC9A-4EDB4F4F417B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{67F2D85F-F75B-4B61-9855-239B084B2F7E}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="677" uniqueCount="302">
   <si>
     <t>APPLICATION</t>
   </si>
@@ -1483,6 +1483,13 @@
     If Airbus site, are you available to go to the Airbus Techbar ?
 Thank you.
 </t>
+  </si>
+  <si>
+    <t>WN 7A</t>
+  </si>
+  <si>
+    <t>We sent a mail to the user for additional informations
+Awaiting the response.</t>
   </si>
 </sst>
 </file>
@@ -3294,7 +3301,7 @@
   <dimension ref="A1:AA965"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="H44" sqref="H44"/>
+      <selection activeCell="G42" sqref="G42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5211,7 +5218,7 @@
         <v>183</v>
       </c>
       <c r="H40" s="71" t="s">
-        <v>190</v>
+        <v>300</v>
       </c>
       <c r="I40" s="70" t="s">
         <v>173</v>
@@ -5262,7 +5269,7 @@
         <v>183</v>
       </c>
       <c r="H41" s="73" t="s">
-        <v>190</v>
+        <v>300</v>
       </c>
       <c r="I41" s="70" t="s">
         <v>173</v>
@@ -5313,7 +5320,7 @@
         <v>183</v>
       </c>
       <c r="H42" s="73" t="s">
-        <v>190</v>
+        <v>300</v>
       </c>
       <c r="I42" s="70" t="s">
         <v>173</v>
@@ -5364,7 +5371,7 @@
         <v>183</v>
       </c>
       <c r="H43" s="73" t="s">
-        <v>190</v>
+        <v>300</v>
       </c>
       <c r="I43" s="70" t="s">
         <v>173</v>
@@ -5415,7 +5422,7 @@
         <v>183</v>
       </c>
       <c r="H44" s="73" t="s">
-        <v>190</v>
+        <v>300</v>
       </c>
       <c r="I44" s="70" t="s">
         <v>173</v>
@@ -5466,7 +5473,7 @@
         <v>183</v>
       </c>
       <c r="H45" s="73" t="s">
-        <v>190</v>
+        <v>300</v>
       </c>
       <c r="I45" s="70" t="s">
         <v>173</v>
@@ -5517,7 +5524,7 @@
         <v>183</v>
       </c>
       <c r="H46" s="17" t="s">
-        <v>190</v>
+        <v>300</v>
       </c>
       <c r="I46" s="70" t="s">
         <v>173</v>
@@ -32316,10 +32323,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CF5CE56-EC25-4FB7-A62C-2823D6365594}">
-  <dimension ref="A1:Z1016"/>
+  <dimension ref="A1:Z1017"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -33414,12 +33421,12 @@
       <c r="Y34" s="1"/>
       <c r="Z34" s="1"/>
     </row>
-    <row r="35" spans="1:26" ht="106.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:26" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="7" t="s">
-        <v>202</v>
+        <v>300</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>213</v>
+        <v>301</v>
       </c>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -33446,12 +33453,12 @@
       <c r="Y35" s="1"/>
       <c r="Z35" s="1"/>
     </row>
-    <row r="36" spans="1:26" ht="66.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:26" ht="106.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="7" t="s">
-        <v>240</v>
+        <v>202</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>241</v>
+        <v>213</v>
       </c>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
@@ -33478,11 +33485,13 @@
       <c r="Y36" s="1"/>
       <c r="Z36" s="1"/>
     </row>
-    <row r="37" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="B37" s="2"/>
+    <row r="37" spans="1:26" ht="66.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>241</v>
+      </c>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
@@ -33508,13 +33517,11 @@
       <c r="Y37" s="1"/>
       <c r="Z37" s="1"/>
     </row>
-    <row r="38" spans="1:26" ht="79.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>210</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="B38" s="2"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
@@ -33542,10 +33549,10 @@
     </row>
     <row r="39" spans="1:26" ht="79.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="6" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
@@ -33572,12 +33579,12 @@
       <c r="Y39" s="1"/>
       <c r="Z39" s="1"/>
     </row>
-    <row r="40" spans="1:26" ht="106.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:26" ht="79.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="6" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
@@ -33606,10 +33613,10 @@
     </row>
     <row r="41" spans="1:26" ht="106.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
@@ -33636,12 +33643,12 @@
       <c r="Y41" s="1"/>
       <c r="Z41" s="1"/>
     </row>
-    <row r="42" spans="1:26" ht="79.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:26" ht="106.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="6" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>246</v>
+        <v>207</v>
       </c>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
@@ -33670,10 +33677,10 @@
     </row>
     <row r="43" spans="1:26" ht="79.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="6" t="s">
-        <v>195</v>
+        <v>178</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>206</v>
+        <v>246</v>
       </c>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
@@ -33700,12 +33707,12 @@
       <c r="Y43" s="1"/>
       <c r="Z43" s="1"/>
     </row>
-    <row r="44" spans="1:26" ht="145.80000000000001" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:26" ht="79.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="6" t="s">
-        <v>179</v>
+        <v>195</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
@@ -33732,12 +33739,12 @@
       <c r="Y44" s="1"/>
       <c r="Z44" s="1"/>
     </row>
-    <row r="45" spans="1:26" ht="66.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:26" ht="145.80000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>161</v>
+        <v>205</v>
       </c>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
@@ -33764,12 +33771,12 @@
       <c r="Y45" s="1"/>
       <c r="Z45" s="1"/>
     </row>
-    <row r="46" spans="1:26" ht="79.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:26" ht="66.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="6" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>196</v>
+        <v>161</v>
       </c>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
@@ -33796,12 +33803,12 @@
       <c r="Y46" s="1"/>
       <c r="Z46" s="1"/>
     </row>
-    <row r="47" spans="1:26" ht="119.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:26" ht="79.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="6" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
@@ -33828,12 +33835,12 @@
       <c r="Y47" s="1"/>
       <c r="Z47" s="1"/>
     </row>
-    <row r="48" spans="1:26" ht="79.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:26" ht="119.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="6" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>298</v>
+        <v>204</v>
       </c>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
@@ -33860,12 +33867,12 @@
       <c r="Y48" s="1"/>
       <c r="Z48" s="1"/>
     </row>
-    <row r="49" spans="1:26" ht="159" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:26" ht="79.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="6" t="s">
-        <v>201</v>
+        <v>183</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>244</v>
+        <v>298</v>
       </c>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
@@ -33892,12 +33899,12 @@
       <c r="Y49" s="1"/>
       <c r="Z49" s="1"/>
     </row>
-    <row r="50" spans="1:26" ht="119.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:26" ht="159" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="6" t="s">
-        <v>242</v>
+        <v>201</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
@@ -33924,9 +33931,13 @@
       <c r="Y50" s="1"/>
       <c r="Z50" s="1"/>
     </row>
-    <row r="51" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="1"/>
-      <c r="B51" s="1"/>
+    <row r="51" spans="1:26" ht="119.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A51" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>243</v>
+      </c>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
@@ -60972,6 +60983,34 @@
       <c r="Y1016" s="1"/>
       <c r="Z1016" s="1"/>
     </row>
+    <row r="1017" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1017" s="1"/>
+      <c r="B1017" s="1"/>
+      <c r="C1017" s="1"/>
+      <c r="D1017" s="1"/>
+      <c r="E1017" s="1"/>
+      <c r="F1017" s="1"/>
+      <c r="G1017" s="1"/>
+      <c r="H1017" s="1"/>
+      <c r="I1017" s="1"/>
+      <c r="J1017" s="1"/>
+      <c r="K1017" s="1"/>
+      <c r="L1017" s="1"/>
+      <c r="M1017" s="1"/>
+      <c r="N1017" s="1"/>
+      <c r="O1017" s="1"/>
+      <c r="P1017" s="1"/>
+      <c r="Q1017" s="1"/>
+      <c r="R1017" s="1"/>
+      <c r="S1017" s="1"/>
+      <c r="T1017" s="1"/>
+      <c r="U1017" s="1"/>
+      <c r="V1017" s="1"/>
+      <c r="W1017" s="1"/>
+      <c r="X1017" s="1"/>
+      <c r="Y1017" s="1"/>
+      <c r="Z1017" s="1"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -60981,7 +61020,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31D4665B-D115-4825-B0F1-BB5C2DC81169}">
   <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>

--- a/data/CotsList.xlsx
+++ b/data/CotsList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rserghine\Projects React\DsiCenter_Excel\public\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{533A2C46-6583-4593-BD33-1AA4CACED673}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFC0A4E0-EEAF-4848-831B-25DC5036709C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30300" yWindow="1245" windowWidth="21600" windowHeight="11235" xr2:uid="{67F2D85F-F75B-4B61-9855-239B084B2F7E}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{67F2D85F-F75B-4B61-9855-239B084B2F7E}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -1475,16 +1475,6 @@
 Best regards.</t>
   </si>
   <si>
-    <t xml:space="preserve">Hello user,
-We can provide you the Visual studio XXXX license key by mail.
-Please provide us below informations:
-1) Do you have Admin rights ?
-2) If not, are you in an Airbus site or offSite ?
-    If Airbus site, are you available to go to the Airbus Techbar ?
-Thank you.
-</t>
-  </si>
-  <si>
     <t>WN 7A</t>
   </si>
   <si>
@@ -1493,6 +1483,17 @@
   </si>
   <si>
     <t>IBM Rational Rhapsody (10,0,2_64b) EN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hello user,
+We can provide you the Visual studio XXXX license key by mail.
+Admin rights are required to activate it.
+Please provide us below informations:
+1) Do you have Admin rights ?
+2) If not, are you in an Airbus site or offSite ?
+    If Airbus site, are you available to go to the Airbus Techbar ?
+Thank you.
+</t>
   </si>
 </sst>
 </file>
@@ -3303,7 +3304,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8204D41-40C1-4E72-957A-75C3D992A16F}">
   <dimension ref="A1:AA966"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
@@ -3730,7 +3731,7 @@
         <v>8</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E9" s="15" t="s">
         <v>20</v>
@@ -5272,7 +5273,7 @@
         <v>183</v>
       </c>
       <c r="H41" s="71" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="I41" s="70" t="s">
         <v>173</v>
@@ -5323,7 +5324,7 @@
         <v>183</v>
       </c>
       <c r="H42" s="73" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="I42" s="70" t="s">
         <v>173</v>
@@ -5374,7 +5375,7 @@
         <v>183</v>
       </c>
       <c r="H43" s="73" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="I43" s="70" t="s">
         <v>173</v>
@@ -5425,7 +5426,7 @@
         <v>183</v>
       </c>
       <c r="H44" s="73" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="I44" s="70" t="s">
         <v>173</v>
@@ -5476,7 +5477,7 @@
         <v>183</v>
       </c>
       <c r="H45" s="73" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="I45" s="70" t="s">
         <v>173</v>
@@ -5527,7 +5528,7 @@
         <v>183</v>
       </c>
       <c r="H46" s="73" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="I46" s="70" t="s">
         <v>173</v>
@@ -5578,7 +5579,7 @@
         <v>183</v>
       </c>
       <c r="H47" s="17" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="I47" s="70" t="s">
         <v>173</v>
@@ -33477,10 +33478,10 @@
     </row>
     <row r="35" spans="1:26" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="B35" s="2" t="s">
         <v>300</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>301</v>
       </c>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -61074,8 +61075,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31D4665B-D115-4825-B0F1-BB5C2DC81169}">
   <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -61310,12 +61311,12 @@
       </c>
       <c r="C23" s="155"/>
     </row>
-    <row r="24" spans="1:7" ht="156.75" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" ht="171" x14ac:dyDescent="0.2">
       <c r="A24" s="170" t="s">
         <v>248</v>
       </c>
       <c r="B24" s="173" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="C24" s="155"/>
     </row>
@@ -61343,7 +61344,7 @@
       <c r="A27" s="153" t="s">
         <v>253</v>
       </c>
-      <c r="B27" s="161" t="s">
+      <c r="B27" s="160" t="s">
         <v>292</v>
       </c>
       <c r="C27" s="160"/>
@@ -61352,7 +61353,7 @@
       <c r="A28" s="153" t="s">
         <v>255</v>
       </c>
-      <c r="B28" s="161" t="s">
+      <c r="B28" s="160" t="s">
         <v>293</v>
       </c>
       <c r="C28" s="160" t="s">

--- a/data/CotsList.xlsx
+++ b/data/CotsList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rserghine\Projects React\DsiCenter_Excel\public\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B3E5C24-69C7-4DAE-92EF-100F0D60EB21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3EE2BCC-CE92-4B65-8BB8-CECF52AEC0D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{67F2D85F-F75B-4B61-9855-239B084B2F7E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{67F2D85F-F75B-4B61-9855-239B084B2F7E}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="688" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="688" uniqueCount="303">
   <si>
     <t>APPLICATION</t>
   </si>
@@ -1497,9 +1497,6 @@
 We suggest you to create a new request for another version.
 Best regards</t>
     </r>
-  </si>
-  <si>
-    <t>AC 7CA</t>
   </si>
 </sst>
 </file>
@@ -3310,7 +3307,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8204D41-40C1-4E72-957A-75C3D992A16F}">
   <dimension ref="A1:AA966"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C26" workbookViewId="0">
       <selection activeCell="K42" sqref="K42"/>
     </sheetView>
   </sheetViews>
@@ -5288,7 +5285,7 @@
         <v>185</v>
       </c>
       <c r="K41" s="70" t="s">
-        <v>303</v>
+        <v>201</v>
       </c>
       <c r="L41" s="71" t="s">
         <v>202</v>
@@ -32386,7 +32383,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CF5CE56-EC25-4FB7-A62C-2823D6365594}">
   <dimension ref="A1:Z1017"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+    <sheetView topLeftCell="A49" workbookViewId="0">
       <selection activeCell="B50" sqref="B50"/>
     </sheetView>
   </sheetViews>
